--- a/files/قاعدة البيانات (1) (1).xlsx
+++ b/files/قاعدة البيانات (1) (1).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Working\يوسف شوقى\PhD\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E5437F-9374-4915-8AA6-CB9087AF43ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DEFB603-1838-4ABA-87FF-06F66C13987D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="312">
   <si>
     <t>هندسة وتكنولوجيا</t>
   </si>
@@ -153,9 +152,6 @@
   </si>
   <si>
     <t>هل يؤثر هذا المشروع (او من المتوقع ان يؤدي) على تحسين أداء (أو تخفيض تكلفة) تقديم سلعة أو خدمة عامة؟</t>
-  </si>
-  <si>
-    <t>العائد الخاص</t>
   </si>
   <si>
     <t>المردود الاجتماعي</t>
@@ -1019,9 +1015,6 @@
     <t>قسم الميكروبيولوجيا الزراعية- المركز القومى للبحوث- الدقى- شارع البحوث-القاهرة</t>
   </si>
   <si>
-    <t>wafaa10m@hotmail.com, wafaa10m@gmail.com</t>
-  </si>
-  <si>
     <t>الاستفادة من التمور منخفضة الجودة في انتاج بعض الاغذية الوظيفية</t>
   </si>
   <si>
@@ -1071,9 +1064,6 @@
   </si>
   <si>
     <t>الجامعة المصرية اليابانية للعلوم و التكنولوجيا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برج العرب الجديدة- الإسكندرية </t>
   </si>
   <si>
     <t>Maha.elsabrouty@ejust.edu.eg</t>
@@ -1177,9 +1167,6 @@
     <t>Essam.abdelsattar@pharma.cu.edu.eg</t>
   </si>
   <si>
-    <t>37 (PI +CO-PI)</t>
-  </si>
-  <si>
     <t>التحالف التكنولوجى لتعميق التصنيع المحلى للخامات التعدينية بسيناء لتطوير الصناعات الكيماوية</t>
   </si>
   <si>
@@ -1192,9 +1179,6 @@
     <t>ص.ب 87 حلوان - القاهرة</t>
   </si>
   <si>
-    <t xml:space="preserve">mamdouh_eissa@yahoo.com &amp; mamdouh.eissa@gmail.com  </t>
-  </si>
-  <si>
     <t>المعالجة الكاملة لقش وقشر الارز لانتاج مواد نانومترية مثل النانوسيليكا و النانوسليلوز واستخداماتها فى تعميق التصنيع المحلى</t>
   </si>
   <si>
@@ -1207,9 +1191,6 @@
     <t>قسم الكيمياء/كلية العلوم/جامعة القاهرة</t>
   </si>
   <si>
-    <t>المركز المصرى لتقنيات النانوتكنولوجى/جامعة القاهرة/الشيخ زايد</t>
-  </si>
-  <si>
     <t>ggenidymohamed@sci.cu.edu.eg</t>
   </si>
   <si>
@@ -1226,15 +1207,6 @@
   </si>
   <si>
     <t>bahaazaghloul@hotmail.com</t>
-  </si>
-  <si>
-    <t>About 25</t>
-  </si>
-  <si>
-    <t>About 10</t>
-  </si>
-  <si>
-    <t>About 90%</t>
   </si>
   <si>
     <t>التحالف القومى للمعرفة والتكنولوجيا فى مجال صناعة 
@@ -1572,16 +1544,202 @@
       <t>الخالق</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">mamdouh.eissa@gmail.com  </t>
+  </si>
+  <si>
+    <t>wafaa10m@gmail.com</t>
+  </si>
+  <si>
+    <t>6-10</t>
+  </si>
+  <si>
+    <t>6-11</t>
+  </si>
+  <si>
+    <t>6-12</t>
+  </si>
+  <si>
+    <t>6-13</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>8-18</t>
+  </si>
+  <si>
+    <t>8-19</t>
+  </si>
+  <si>
+    <t>8-20</t>
+  </si>
+  <si>
+    <t>8-21</t>
+  </si>
+  <si>
+    <t>8-22</t>
+  </si>
+  <si>
+    <t>9-23</t>
+  </si>
+  <si>
+    <t>9-24</t>
+  </si>
+  <si>
+    <t>9-25</t>
+  </si>
+  <si>
+    <t>9-26</t>
+  </si>
+  <si>
+    <t>10-27</t>
+  </si>
+  <si>
+    <t>10-28</t>
+  </si>
+  <si>
+    <t>10-29</t>
+  </si>
+  <si>
+    <t>10-30</t>
+  </si>
+  <si>
+    <t>10-31</t>
+  </si>
+  <si>
+    <t>10-32</t>
+  </si>
+  <si>
+    <t>12-33</t>
+  </si>
+  <si>
+    <t>12-34</t>
+  </si>
+  <si>
+    <t>12-35</t>
+  </si>
+  <si>
+    <t>13-36</t>
+  </si>
+  <si>
+    <t>13-37</t>
+  </si>
+  <si>
+    <t>13-38</t>
+  </si>
+  <si>
+    <t>13-39</t>
+  </si>
+  <si>
+    <t>16-41</t>
+  </si>
+  <si>
+    <t>16-42</t>
+  </si>
+  <si>
+    <t>16-43</t>
+  </si>
+  <si>
+    <t>16-44</t>
+  </si>
+  <si>
+    <t>16-45</t>
+  </si>
+  <si>
+    <t>16-40</t>
+  </si>
+  <si>
+    <t>17-46</t>
+  </si>
+  <si>
+    <t>17-47</t>
+  </si>
+  <si>
+    <t>17-48</t>
+  </si>
+  <si>
+    <t>17-49</t>
+  </si>
+  <si>
+    <t>17-50</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>7-14</t>
+  </si>
+  <si>
+    <t>7-15</t>
+  </si>
+  <si>
+    <t>7-16</t>
+  </si>
+  <si>
+    <t>7-17</t>
+  </si>
+  <si>
+    <t>4-51</t>
+  </si>
+  <si>
+    <t>4-52</t>
+  </si>
+  <si>
+    <t>14-53</t>
+  </si>
+  <si>
+    <t>14-54</t>
+  </si>
+  <si>
+    <t>14-55</t>
+  </si>
+  <si>
+    <t>14-56</t>
+  </si>
+  <si>
+    <t>14-57</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15-58</t>
+  </si>
+  <si>
+    <t>15-59</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1589,7 +1747,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1640,7 +1798,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1675,7 +1833,7 @@
       <b/>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1690,7 +1848,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1698,15 +1856,9 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1769,7 +1921,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1811,14 +1963,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2035,7 +2187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2084,20 +2236,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2107,34 +2256,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2144,19 +2293,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2175,13 +2324,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2203,16 +2352,85 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2240,75 +2458,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2624,375 +2773,375 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7FCD33-4C0F-4A5B-B461-58A7B0D92D25}">
-  <dimension ref="A1:CF45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CF34"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="7" topLeftCell="BO8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="BS5" sqref="BS5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="104" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="104" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="104" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="37.375" style="104" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
-    <col min="8" max="8" width="38.875" customWidth="1"/>
-    <col min="9" max="9" width="34.625" customWidth="1"/>
-    <col min="10" max="10" width="37.375" customWidth="1"/>
-    <col min="11" max="11" width="32.75" customWidth="1"/>
-    <col min="12" max="12" width="29.625" customWidth="1"/>
-    <col min="13" max="13" width="34.375" customWidth="1"/>
-    <col min="14" max="14" width="18.625" customWidth="1"/>
-    <col min="15" max="15" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="93" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="93" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="93" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="93" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="8" max="8" width="38.88671875" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" customWidth="1"/>
+    <col min="11" max="11" width="32.77734375" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" customWidth="1"/>
+    <col min="13" max="13" width="34.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
     <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="13.625" customWidth="1"/>
-    <col min="18" max="18" width="14.875" customWidth="1"/>
-    <col min="19" max="19" width="16.625" customWidth="1"/>
-    <col min="20" max="20" width="19.25" customWidth="1"/>
-    <col min="21" max="21" width="11.375" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="19.21875" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
-    <col min="23" max="23" width="11.75" customWidth="1"/>
-    <col min="24" max="24" width="39.125" customWidth="1"/>
-    <col min="25" max="25" width="51.75" customWidth="1"/>
-    <col min="26" max="26" width="47.75" customWidth="1"/>
+    <col min="23" max="23" width="11.77734375" customWidth="1"/>
+    <col min="24" max="24" width="39.109375" customWidth="1"/>
+    <col min="25" max="25" width="51.77734375" customWidth="1"/>
+    <col min="26" max="26" width="47.77734375" customWidth="1"/>
     <col min="27" max="27" width="48" customWidth="1"/>
     <col min="28" max="28" width="36" customWidth="1"/>
-    <col min="29" max="29" width="40.875" customWidth="1"/>
+    <col min="29" max="29" width="40.88671875" customWidth="1"/>
     <col min="30" max="30" width="37" customWidth="1"/>
-    <col min="31" max="31" width="22.625" customWidth="1"/>
-    <col min="32" max="32" width="38.125" customWidth="1"/>
-    <col min="33" max="33" width="33.375" customWidth="1"/>
+    <col min="31" max="31" width="22.6640625" customWidth="1"/>
+    <col min="32" max="32" width="38.109375" customWidth="1"/>
+    <col min="33" max="33" width="33.33203125" customWidth="1"/>
     <col min="34" max="34" width="27" customWidth="1"/>
-    <col min="35" max="35" width="32.25" customWidth="1"/>
+    <col min="35" max="35" width="32.21875" customWidth="1"/>
     <col min="36" max="36" width="26" customWidth="1"/>
-    <col min="37" max="37" width="27.125" customWidth="1"/>
-    <col min="38" max="38" width="24.25" customWidth="1"/>
-    <col min="39" max="39" width="26.375" customWidth="1"/>
-    <col min="40" max="40" width="31.75" customWidth="1"/>
-    <col min="41" max="41" width="31.875" customWidth="1"/>
-    <col min="42" max="42" width="39.125" customWidth="1"/>
-    <col min="43" max="43" width="20.125" customWidth="1"/>
+    <col min="37" max="37" width="27.109375" customWidth="1"/>
+    <col min="38" max="38" width="24.21875" customWidth="1"/>
+    <col min="39" max="39" width="26.33203125" customWidth="1"/>
+    <col min="40" max="40" width="31.77734375" customWidth="1"/>
+    <col min="41" max="41" width="31.88671875" customWidth="1"/>
+    <col min="42" max="42" width="39.109375" customWidth="1"/>
+    <col min="43" max="43" width="20.109375" customWidth="1"/>
     <col min="44" max="44" width="29" customWidth="1"/>
-    <col min="45" max="45" width="31.25" customWidth="1"/>
-    <col min="46" max="46" width="29.25" customWidth="1"/>
-    <col min="47" max="47" width="29.125" customWidth="1"/>
-    <col min="48" max="48" width="24.625" customWidth="1"/>
-    <col min="49" max="49" width="16.125" customWidth="1"/>
-    <col min="50" max="50" width="51.625" customWidth="1"/>
-    <col min="51" max="51" width="30.375" customWidth="1"/>
-    <col min="52" max="52" width="33.125" customWidth="1"/>
-    <col min="53" max="53" width="39.125" customWidth="1"/>
+    <col min="45" max="45" width="31.21875" customWidth="1"/>
+    <col min="46" max="46" width="29.21875" customWidth="1"/>
+    <col min="47" max="47" width="29.109375" customWidth="1"/>
+    <col min="48" max="48" width="24.6640625" customWidth="1"/>
+    <col min="49" max="49" width="16.109375" customWidth="1"/>
+    <col min="50" max="50" width="51.6640625" customWidth="1"/>
+    <col min="51" max="51" width="30.33203125" customWidth="1"/>
+    <col min="52" max="52" width="33.109375" customWidth="1"/>
+    <col min="53" max="53" width="39.109375" customWidth="1"/>
     <col min="54" max="54" width="44" customWidth="1"/>
-    <col min="55" max="55" width="43.75" customWidth="1"/>
-    <col min="56" max="56" width="35.25" customWidth="1"/>
-    <col min="57" max="57" width="44.25" customWidth="1"/>
-    <col min="58" max="58" width="45.875" customWidth="1"/>
-    <col min="59" max="59" width="25.25" customWidth="1"/>
-    <col min="60" max="60" width="35.625" customWidth="1"/>
-    <col min="61" max="61" width="26.875" customWidth="1"/>
-    <col min="62" max="62" width="36.125" customWidth="1"/>
-    <col min="63" max="63" width="33.125" customWidth="1"/>
-    <col min="64" max="64" width="36.25" customWidth="1"/>
-    <col min="65" max="65" width="14.75" customWidth="1"/>
-    <col min="66" max="66" width="23.125" customWidth="1"/>
-    <col min="67" max="67" width="16.25" customWidth="1"/>
+    <col min="55" max="55" width="43.77734375" customWidth="1"/>
+    <col min="56" max="56" width="35.21875" customWidth="1"/>
+    <col min="57" max="57" width="44.21875" customWidth="1"/>
+    <col min="58" max="58" width="45.88671875" customWidth="1"/>
+    <col min="59" max="59" width="25.21875" customWidth="1"/>
+    <col min="60" max="60" width="35.6640625" customWidth="1"/>
+    <col min="61" max="61" width="26.88671875" customWidth="1"/>
+    <col min="62" max="62" width="36.109375" customWidth="1"/>
+    <col min="63" max="63" width="33.109375" customWidth="1"/>
+    <col min="64" max="64" width="36.21875" customWidth="1"/>
+    <col min="65" max="65" width="14.77734375" customWidth="1"/>
+    <col min="66" max="66" width="23.109375" customWidth="1"/>
+    <col min="67" max="67" width="16.21875" customWidth="1"/>
     <col min="68" max="68" width="20" customWidth="1"/>
-    <col min="69" max="69" width="31.625" customWidth="1"/>
-    <col min="70" max="70" width="35.25" customWidth="1"/>
-    <col min="71" max="71" width="23.625" customWidth="1"/>
-    <col min="72" max="72" width="31.75" customWidth="1"/>
-    <col min="73" max="73" width="81.25" customWidth="1"/>
-    <col min="74" max="74" width="45.625" customWidth="1"/>
-    <col min="75" max="75" width="36.625" customWidth="1"/>
-    <col min="76" max="76" width="31.25" customWidth="1"/>
-    <col min="77" max="77" width="34.625" customWidth="1"/>
-    <col min="78" max="78" width="32.375" customWidth="1"/>
-    <col min="79" max="79" width="47.375" customWidth="1"/>
-    <col min="80" max="80" width="42.25" customWidth="1"/>
-    <col min="81" max="81" width="41.375" customWidth="1"/>
-    <col min="82" max="82" width="32.75" customWidth="1"/>
-    <col min="83" max="83" width="34.25" customWidth="1"/>
-    <col min="84" max="84" width="32.875" customWidth="1"/>
+    <col min="69" max="69" width="31.6640625" customWidth="1"/>
+    <col min="70" max="70" width="35.21875" customWidth="1"/>
+    <col min="71" max="71" width="23.6640625" customWidth="1"/>
+    <col min="72" max="72" width="31.77734375" customWidth="1"/>
+    <col min="73" max="73" width="81.21875" customWidth="1"/>
+    <col min="74" max="74" width="45.6640625" customWidth="1"/>
+    <col min="75" max="75" width="36.6640625" customWidth="1"/>
+    <col min="76" max="76" width="31.21875" customWidth="1"/>
+    <col min="77" max="77" width="34.6640625" customWidth="1"/>
+    <col min="78" max="78" width="32.33203125" customWidth="1"/>
+    <col min="79" max="79" width="47.33203125" customWidth="1"/>
+    <col min="80" max="80" width="42.21875" customWidth="1"/>
+    <col min="81" max="81" width="41.33203125" customWidth="1"/>
+    <col min="82" max="82" width="32.77734375" customWidth="1"/>
+    <col min="83" max="83" width="34.21875" customWidth="1"/>
+    <col min="84" max="84" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="3" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:84" s="3" customFormat="1" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="100"/>
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="100"/>
+      <c r="AM1" s="100"/>
+      <c r="AN1" s="100"/>
+      <c r="AO1" s="100"/>
+      <c r="AP1" s="100"/>
+      <c r="AQ1" s="100"/>
+      <c r="AR1" s="100"/>
+      <c r="AS1" s="100"/>
+      <c r="AT1" s="100"/>
+      <c r="AU1" s="100"/>
+      <c r="AV1" s="100"/>
+      <c r="AW1" s="100"/>
+      <c r="AX1" s="100"/>
+      <c r="AY1" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ1" s="100"/>
+      <c r="BA1" s="100"/>
+      <c r="BB1" s="100"/>
+      <c r="BC1" s="100"/>
+      <c r="BD1" s="100"/>
+      <c r="BE1" s="100"/>
+      <c r="BF1" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG1" s="100"/>
+      <c r="BH1" s="100"/>
+      <c r="BI1" s="100"/>
+      <c r="BJ1" s="100"/>
+      <c r="BK1" s="100"/>
+      <c r="BL1" s="100"/>
+      <c r="BM1" s="100"/>
+      <c r="BN1" s="100"/>
+      <c r="BO1" s="100"/>
+      <c r="BP1" s="100"/>
+      <c r="BQ1" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR1" s="102"/>
+      <c r="BS1" s="102"/>
+      <c r="BT1" s="102"/>
+      <c r="BU1" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK1" s="76"/>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="76"/>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="76"/>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="76"/>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="76"/>
-      <c r="BB1" s="76"/>
-      <c r="BC1" s="76"/>
-      <c r="BD1" s="76"/>
-      <c r="BE1" s="76"/>
-      <c r="BF1" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="BG1" s="76"/>
-      <c r="BH1" s="76"/>
-      <c r="BI1" s="76"/>
-      <c r="BJ1" s="76"/>
-      <c r="BK1" s="76"/>
-      <c r="BL1" s="76"/>
-      <c r="BM1" s="76"/>
-      <c r="BN1" s="76"/>
-      <c r="BO1" s="76"/>
-      <c r="BP1" s="76"/>
-      <c r="BQ1" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="BR1" s="78"/>
-      <c r="BS1" s="78"/>
-      <c r="BT1" s="78"/>
-      <c r="BU1" s="76" t="s">
+      <c r="BV1" s="100"/>
+      <c r="BW1" s="100"/>
+      <c r="BX1" s="100"/>
+      <c r="BY1" s="100"/>
+      <c r="BZ1" s="100"/>
+      <c r="CA1" s="100"/>
+      <c r="CB1" s="100"/>
+      <c r="CC1" s="100"/>
+      <c r="CD1" s="100"/>
+      <c r="CE1" s="100"/>
+      <c r="CF1" s="100"/>
+    </row>
+    <row r="2" spans="1:84" s="4" customFormat="1" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="101"/>
+      <c r="B2" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="AB2" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="BV1" s="76"/>
-      <c r="BW1" s="76"/>
-      <c r="BX1" s="76"/>
-      <c r="BY1" s="76"/>
-      <c r="BZ1" s="76"/>
-      <c r="CA1" s="76"/>
-      <c r="CB1" s="76"/>
-      <c r="CC1" s="76"/>
-      <c r="CD1" s="76"/>
-      <c r="CE1" s="76"/>
-      <c r="CF1" s="76"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
+      <c r="AW2" s="97"/>
+      <c r="AX2" s="97"/>
+      <c r="AY2" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ2" s="97"/>
+      <c r="BA2" s="97"/>
+      <c r="BB2" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC2" s="97"/>
+      <c r="BD2" s="97"/>
+      <c r="BE2" s="97"/>
+      <c r="BQ2" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="BR2" s="104"/>
+      <c r="BS2" s="104"/>
+      <c r="BT2" s="104"/>
+      <c r="BV2" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="BW2" s="96"/>
+      <c r="BX2" s="96"/>
+      <c r="BY2" s="96"/>
+      <c r="BZ2" s="96"/>
+      <c r="CA2" s="96"/>
+      <c r="CB2" s="97" t="s">
+        <v>41</v>
+      </c>
+      <c r="CC2" s="97"/>
+      <c r="CD2" s="97"/>
+      <c r="CE2" s="97"/>
+      <c r="CF2" s="97"/>
     </row>
-    <row r="2" spans="1:84" s="4" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="77"/>
-      <c r="B2" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="AB2" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="73"/>
-      <c r="AV2" s="73"/>
-      <c r="AW2" s="73"/>
-      <c r="AX2" s="73"/>
-      <c r="AY2" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="AZ2" s="73"/>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC2" s="73"/>
-      <c r="BD2" s="73"/>
-      <c r="BE2" s="73"/>
-      <c r="BQ2" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" s="80"/>
-      <c r="BS2" s="80"/>
-      <c r="BT2" s="80"/>
-      <c r="BV2" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="BW2" s="72"/>
-      <c r="BX2" s="72"/>
-      <c r="BY2" s="72"/>
-      <c r="BZ2" s="72"/>
-      <c r="CA2" s="72"/>
-      <c r="CB2" s="73" t="s">
+    <row r="3" spans="1:84" s="12" customFormat="1" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="101"/>
+      <c r="B3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="CC2" s="73"/>
-      <c r="CD2" s="73"/>
-      <c r="CE2" s="73"/>
-      <c r="CF2" s="73"/>
-    </row>
-    <row r="3" spans="1:84" s="12" customFormat="1" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="81" t="s">
-        <v>254</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>255</v>
-      </c>
-      <c r="E3" s="82" t="s">
-        <v>256</v>
-      </c>
-      <c r="F3" s="82" t="s">
-        <v>257</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="V3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="Y3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>3</v>
@@ -3022,31 +3171,31 @@
         <v>11</v>
       </c>
       <c r="AJ3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AL3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AM3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AM3" s="7" t="s">
+      <c r="AN3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AN3" s="7" t="s">
+      <c r="AO3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AO3" s="9" t="s">
+      <c r="AP3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AP3" s="9" t="s">
+      <c r="AQ3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AQ3" s="9" t="s">
+      <c r="AR3" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="AR3" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="AS3" s="10" t="s">
         <v>12</v>
@@ -3067,167 +3216,328 @@
         <v>17</v>
       </c>
       <c r="AY3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AZ3" s="7" t="s">
+      <c r="BA3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="BA3" s="7" t="s">
+      <c r="BB3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BB3" s="7" t="s">
+      <c r="BC3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BC3" s="7" t="s">
+      <c r="BD3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BD3" s="7" t="s">
+      <c r="BE3" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="BE3" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="BF3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="BG3" s="79" t="s">
+      <c r="BG3" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH3" s="103"/>
+      <c r="BI3" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="BH3" s="79"/>
-      <c r="BI3" s="79" t="s">
+      <c r="BJ3" s="103"/>
+      <c r="BK3" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="BJ3" s="79"/>
-      <c r="BK3" s="79" t="s">
+      <c r="BL3" s="103"/>
+      <c r="BM3" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="BL3" s="79"/>
-      <c r="BM3" s="79" t="s">
+      <c r="BN3" s="103"/>
+      <c r="BO3" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="BN3" s="79"/>
-      <c r="BO3" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="BP3" s="75"/>
-      <c r="BQ3" s="79" t="s">
+      <c r="BP3" s="99"/>
+      <c r="BQ3" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="BR3" s="79"/>
-      <c r="BS3" s="79" t="s">
+      <c r="BR3" s="103"/>
+      <c r="BS3" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="BT3" s="79"/>
+      <c r="BT3" s="103"/>
       <c r="BU3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="BV3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BW3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="BW3" s="7" t="s">
+      <c r="BX3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="BX3" s="7" t="s">
+      <c r="BY3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="BY3" s="7" t="s">
+      <c r="BZ3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="BZ3" s="7" t="s">
+      <c r="CA3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="CA3" s="7" t="s">
+      <c r="CB3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="CB3" s="7" t="s">
+      <c r="CC3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="CC3" s="7" t="s">
+      <c r="CD3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="CD3" s="7" t="s">
+      <c r="CE3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="CE3" s="7" t="s">
+      <c r="CF3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CF3" s="7" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="4" spans="1:84" s="12" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="BG4" s="12" t="s">
+    <row r="4" spans="1:84" s="12" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="101"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="O4" s="95" t="s">
+        <v>256</v>
+      </c>
+      <c r="P4" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q4" s="95" t="s">
+        <v>258</v>
+      </c>
+      <c r="R4" s="95" t="s">
+        <v>259</v>
+      </c>
+      <c r="S4" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="T4" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="U4" s="95" t="s">
+        <v>295</v>
+      </c>
+      <c r="V4" s="95" t="s">
+        <v>296</v>
+      </c>
+      <c r="W4" s="95" t="s">
+        <v>297</v>
+      </c>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z4" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB4" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC4" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD4" s="95" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE4" s="95" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF4" s="95" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG4" s="95" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH4" s="95" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI4" s="95" t="s">
+        <v>301</v>
+      </c>
+      <c r="AJ4" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK4" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL4" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="AM4" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN4" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO4" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP4" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="AQ4" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="AR4" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="AS4" s="95" t="s">
+        <v>271</v>
+      </c>
+      <c r="AT4" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="AU4" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="AV4" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="AW4" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX4" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="AY4" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="AZ4" s="95" t="s">
+        <v>278</v>
+      </c>
+      <c r="BA4" s="95" t="s">
+        <v>279</v>
+      </c>
+      <c r="BB4" s="95" t="s">
+        <v>280</v>
+      </c>
+      <c r="BC4" s="95" t="s">
+        <v>281</v>
+      </c>
+      <c r="BD4" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="BE4" s="95" t="s">
+        <v>283</v>
+      </c>
+      <c r="BF4" s="95" t="s">
+        <v>309</v>
+      </c>
+      <c r="BG4" s="95" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH4" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="BH4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="BI4" s="12" t="s">
+      <c r="BI4" s="95" t="s">
+        <v>305</v>
+      </c>
+      <c r="BJ4" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="BJ4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="BK4" s="12" t="s">
+      <c r="BK4" s="95" t="s">
+        <v>306</v>
+      </c>
+      <c r="BL4" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="BL4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="BM4" s="12" t="s">
+      <c r="BM4" s="95" t="s">
+        <v>307</v>
+      </c>
+      <c r="BN4" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="BN4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="BO4" s="12" t="s">
+      <c r="BO4" s="95" t="s">
+        <v>308</v>
+      </c>
+      <c r="BP4" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="BP4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="BQ4" s="12" t="s">
+      <c r="BQ4" s="95" t="s">
+        <v>310</v>
+      </c>
+      <c r="BR4" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="BR4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="BS4" s="12" t="s">
+      <c r="BS4" s="95" t="s">
+        <v>311</v>
+      </c>
+      <c r="BT4" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="BT4" s="12" t="s">
-        <v>35</v>
+      <c r="BU4" s="95"/>
+      <c r="BV4" s="95" t="s">
+        <v>289</v>
+      </c>
+      <c r="BW4" s="95" t="s">
+        <v>284</v>
+      </c>
+      <c r="BX4" s="95" t="s">
+        <v>285</v>
+      </c>
+      <c r="BY4" s="95" t="s">
+        <v>286</v>
+      </c>
+      <c r="BZ4" s="95" t="s">
+        <v>287</v>
+      </c>
+      <c r="CA4" s="95" t="s">
+        <v>288</v>
+      </c>
+      <c r="CB4" s="95" t="s">
+        <v>290</v>
+      </c>
+      <c r="CC4" s="95" t="s">
+        <v>291</v>
+      </c>
+      <c r="CD4" s="95" t="s">
+        <v>292</v>
+      </c>
+      <c r="CE4" s="95" t="s">
+        <v>293</v>
+      </c>
+      <c r="CF4" s="95" t="s">
+        <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:84" ht="100.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:84" ht="101.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="84" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" s="85" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="85" t="s">
+      <c r="G5" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>98</v>
       </c>
       <c r="I5" s="2">
         <v>10</v>
@@ -3458,30 +3768,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:84" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:84" ht="18" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="86" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="86" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" s="86" t="s">
+      <c r="F6" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="17" t="s">
         <v>101</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>102</v>
       </c>
       <c r="I6" s="1">
         <v>9</v>
@@ -3710,30 +4020,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="86" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="86" t="s">
-        <v>246</v>
-      </c>
-      <c r="E7" s="86" t="s">
+      <c r="F7" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="G7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>107</v>
       </c>
       <c r="I7" s="1">
         <v>8</v>
@@ -3964,30 +4274,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:84" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="E8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="G8" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="H8" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>112</v>
       </c>
       <c r="I8" s="19">
         <v>14</v>
@@ -4219,30 +4529,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:84" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:84" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" s="88" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9" s="87" t="s">
+      <c r="F9" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="87" t="s">
+      <c r="G9" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>117</v>
+      <c r="H9" s="94" t="s">
+        <v>251</v>
       </c>
       <c r="I9" s="21">
         <v>10</v>
@@ -4400,7 +4710,7 @@
       <c r="BH9" s="1">
         <v>0</v>
       </c>
-      <c r="BI9" s="23">
+      <c r="BI9" s="22">
         <v>0.8</v>
       </c>
       <c r="BJ9" s="1">
@@ -4412,7 +4722,7 @@
       <c r="BL9" s="1">
         <v>0</v>
       </c>
-      <c r="BM9" s="23">
+      <c r="BM9" s="22">
         <v>0.75</v>
       </c>
       <c r="BN9" s="1">
@@ -4473,47 +4783,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:84" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:84" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>246</v>
-      </c>
-      <c r="E10" s="25" t="s">
+      <c r="G10" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="H10" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="25">
+      <c r="I10" s="24">
         <v>5</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="24">
         <v>17</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="24">
         <v>6</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="24">
         <v>2</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="24">
         <v>2</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="24">
         <v>7</v>
       </c>
       <c r="O10" s="1">
@@ -4723,30 +5033,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:84" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:84" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="89" t="s">
-        <v>238</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="E11" s="25" t="s">
+      <c r="H11" s="27" t="s">
         <v>124</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>126</v>
       </c>
       <c r="I11" s="19">
         <v>20</v>
@@ -4766,7 +5076,7 @@
       <c r="N11" s="19">
         <v>5</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="28">
         <v>0</v>
       </c>
       <c r="P11" s="1">
@@ -4977,30 +5287,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:84" ht="94.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:84" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="G12" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="H12" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="I12" s="19">
         <v>5</v>
@@ -5231,33 +5541,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:84" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:84" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="E13" s="25" t="s">
+      <c r="G13" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>136</v>
+      <c r="I13" s="19">
+        <v>0</v>
       </c>
       <c r="J13" s="19">
         <v>5</v>
@@ -5485,30 +5795,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:84" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:84" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="31" t="s">
         <v>137</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="E14" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>140</v>
       </c>
       <c r="I14" s="19">
         <v>2</v>
@@ -5660,34 +5970,34 @@
       <c r="BF14" s="1">
         <v>1</v>
       </c>
-      <c r="BG14" s="33">
-        <v>0</v>
-      </c>
-      <c r="BH14" s="34">
-        <v>0</v>
-      </c>
-      <c r="BI14" s="35">
+      <c r="BG14" s="32">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="33">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="34">
         <v>0.2</v>
       </c>
-      <c r="BJ14" s="36">
+      <c r="BJ14" s="35">
         <v>0.3</v>
       </c>
-      <c r="BK14" s="35">
+      <c r="BK14" s="34">
         <v>0.5</v>
       </c>
-      <c r="BL14" s="36">
+      <c r="BL14" s="35">
         <v>0.8</v>
       </c>
-      <c r="BM14" s="35">
+      <c r="BM14" s="34">
         <v>0.5</v>
       </c>
-      <c r="BN14" s="36">
+      <c r="BN14" s="35">
         <v>0.5</v>
       </c>
-      <c r="BO14" s="35">
+      <c r="BO14" s="34">
         <v>0.5</v>
       </c>
-      <c r="BP14" s="36">
+      <c r="BP14" s="35">
         <v>0.5</v>
       </c>
       <c r="BQ14" s="1">
@@ -5739,47 +6049,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:84" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:84" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="D15" s="71" t="s">
-        <v>249</v>
-      </c>
-      <c r="E15" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="I15" s="38">
+      <c r="E15" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="37">
         <v>7</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="37">
         <v>3</v>
       </c>
-      <c r="K15" s="38">
-        <v>0</v>
-      </c>
-      <c r="L15" s="38">
-        <v>1</v>
-      </c>
-      <c r="M15" s="38">
-        <v>1</v>
-      </c>
-      <c r="N15" s="38">
+      <c r="K15" s="37">
+        <v>0</v>
+      </c>
+      <c r="L15" s="37">
+        <v>1</v>
+      </c>
+      <c r="M15" s="37">
+        <v>1</v>
+      </c>
+      <c r="N15" s="37">
         <v>2</v>
       </c>
       <c r="O15" s="1">
@@ -5914,10 +6224,10 @@
       <c r="BF15" s="1">
         <v>1</v>
       </c>
-      <c r="BG15" s="39">
-        <v>0</v>
-      </c>
-      <c r="BH15" s="39">
+      <c r="BG15" s="38">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="38">
         <v>0</v>
       </c>
       <c r="BI15" s="1">
@@ -5926,16 +6236,16 @@
       <c r="BJ15" s="1">
         <v>0</v>
       </c>
-      <c r="BK15" s="23">
+      <c r="BK15" s="22">
         <v>0.5</v>
       </c>
       <c r="BL15" s="1">
         <v>0</v>
       </c>
-      <c r="BM15" s="39">
-        <v>0</v>
-      </c>
-      <c r="BN15" s="39">
+      <c r="BM15" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="38">
         <v>0</v>
       </c>
       <c r="BO15" s="1">
@@ -5993,30 +6303,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:84" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:84" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" s="71" t="s">
-        <v>246</v>
-      </c>
-      <c r="E16" s="25" t="s">
+      <c r="H16" s="19" t="s">
         <v>145</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>148</v>
       </c>
       <c r="I16" s="19">
         <v>4</v>
@@ -6168,13 +6478,13 @@
       <c r="BF16" s="1">
         <v>1</v>
       </c>
-      <c r="BG16" s="40">
+      <c r="BG16" s="39">
         <v>0.7</v>
       </c>
-      <c r="BH16" s="41">
-        <v>0</v>
-      </c>
-      <c r="BI16" s="23">
+      <c r="BH16" s="40">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="22">
         <v>0.2</v>
       </c>
       <c r="BJ16" s="1">
@@ -6247,47 +6557,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:84" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="92" t="s">
-        <v>241</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>250</v>
-      </c>
-      <c r="E17" s="91" t="s">
+      <c r="H17" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="F17" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="I17" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="J17" s="44">
+      <c r="I17" s="43">
+        <v>0</v>
+      </c>
+      <c r="J17" s="43">
         <v>55</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="43">
         <v>38</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="43">
         <v>8</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="43">
         <v>21</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="43">
         <v>25</v>
       </c>
       <c r="O17" s="1">
@@ -6422,10 +6732,10 @@
       <c r="BF17" s="1">
         <v>1</v>
       </c>
-      <c r="BG17" s="39">
-        <v>1</v>
-      </c>
-      <c r="BH17" s="39">
+      <c r="BG17" s="38">
+        <v>1</v>
+      </c>
+      <c r="BH17" s="38">
         <v>0</v>
       </c>
       <c r="BI17" s="1">
@@ -6501,47 +6811,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:84" ht="57.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:84" ht="55.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="93" t="s">
-        <v>241</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>245</v>
-      </c>
-      <c r="E18" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="I18" s="44">
+      <c r="B18" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="I18" s="43">
         <v>50</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="43">
         <v>20</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="43">
         <v>20</v>
       </c>
-      <c r="L18" s="44">
+      <c r="L18" s="43">
         <v>8</v>
       </c>
-      <c r="M18" s="44">
+      <c r="M18" s="43">
         <v>22</v>
       </c>
-      <c r="N18" s="44">
+      <c r="N18" s="43">
         <v>20</v>
       </c>
       <c r="O18" s="1">
@@ -6676,13 +6986,13 @@
       <c r="BF18" s="1">
         <v>1</v>
       </c>
-      <c r="BG18" s="39">
-        <v>0</v>
-      </c>
-      <c r="BH18" s="39">
-        <v>0</v>
-      </c>
-      <c r="BI18" s="23">
+      <c r="BG18" s="38">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="38">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="22">
         <v>0.2</v>
       </c>
       <c r="BJ18" s="1">
@@ -6755,42 +7065,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:84" ht="79.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:84" ht="94.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="94" t="s">
-        <v>241</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="H19" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="J19" s="44">
+      <c r="B19" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" s="23">
+        <v>0</v>
+      </c>
+      <c r="J19" s="43">
         <v>21</v>
       </c>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44">
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43">
         <v>1</v>
       </c>
       <c r="P19" s="1">
@@ -7001,50 +7311,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:84" ht="108.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:84" ht="114.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="95" t="s">
-        <v>241</v>
-      </c>
-      <c r="D20" s="71" t="s">
-        <v>245</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="I20" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="J20" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="K20" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="L20" s="44">
+      <c r="B20" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" s="43">
+        <v>0</v>
+      </c>
+      <c r="J20" s="43">
+        <v>10</v>
+      </c>
+      <c r="K20" s="43">
+        <v>9</v>
+      </c>
+      <c r="L20" s="43">
         <v>2</v>
       </c>
-      <c r="M20" s="44">
-        <v>0</v>
-      </c>
-      <c r="N20" s="44">
+      <c r="M20" s="43">
+        <v>0</v>
+      </c>
+      <c r="N20" s="43">
         <v>10</v>
       </c>
-      <c r="O20" s="41">
+      <c r="O20" s="40">
         <v>0</v>
       </c>
       <c r="P20" s="1">
@@ -7255,30 +7565,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:84" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:84" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="96" t="s">
-        <v>241</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>249</v>
-      </c>
-      <c r="E21" s="86" t="s">
-        <v>175</v>
-      </c>
-      <c r="F21" s="86" t="s">
-        <v>176</v>
+      <c r="B21" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="76" t="s">
+        <v>167</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="I21" s="1">
         <v>4</v>
@@ -7325,10 +7635,10 @@
       <c r="W21" s="1">
         <v>1</v>
       </c>
-      <c r="X21" s="51">
+      <c r="X21" s="50">
         <v>9954383.25</v>
       </c>
-      <c r="Y21" s="51">
+      <c r="Y21" s="50">
         <v>9954383.25</v>
       </c>
       <c r="Z21" s="1">
@@ -7509,47 +7819,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:84" ht="57" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:84" ht="54.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="D22" s="71" t="s">
-        <v>246</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="G22" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="44">
+      <c r="B22" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="43">
         <v>10</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="43">
         <v>25</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="43">
         <v>3</v>
       </c>
-      <c r="L22" s="44">
+      <c r="L22" s="43">
         <v>2</v>
       </c>
-      <c r="M22" s="44">
+      <c r="M22" s="43">
         <v>3</v>
       </c>
-      <c r="N22" s="44">
+      <c r="N22" s="43">
         <v>5</v>
       </c>
       <c r="O22" s="1">
@@ -7763,53 +8073,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:84" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:84" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="97" t="s">
+      <c r="B23" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="D23" s="71" t="s">
-        <v>251</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="I23" s="44">
+      <c r="E23" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="I23" s="43">
         <v>50</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="43">
         <v>100</v>
       </c>
-      <c r="K23" s="44">
+      <c r="K23" s="43">
         <v>20</v>
       </c>
-      <c r="L23" s="44">
+      <c r="L23" s="43">
         <v>40</v>
       </c>
-      <c r="M23" s="44">
+      <c r="M23" s="43">
         <v>80</v>
       </c>
-      <c r="N23" s="54">
+      <c r="N23" s="53">
         <v>10</v>
       </c>
-      <c r="O23" s="54">
-        <v>1</v>
-      </c>
-      <c r="P23" s="44">
+      <c r="O23" s="53">
+        <v>1</v>
+      </c>
+      <c r="P23" s="43">
         <v>0</v>
       </c>
       <c r="Q23" s="1">
@@ -7833,13 +8143,13 @@
       <c r="W23" s="1">
         <v>1</v>
       </c>
-      <c r="X23" s="52">
+      <c r="X23" s="51">
         <v>15471377</v>
       </c>
-      <c r="Y23" s="44">
+      <c r="Y23" s="43">
         <v>13971377</v>
       </c>
-      <c r="Z23" s="44">
+      <c r="Z23" s="43">
         <v>1500000</v>
       </c>
       <c r="AA23" s="1">
@@ -8017,47 +8327,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:84" ht="57" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:84" ht="54.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="D24" s="71" t="s">
-        <v>252</v>
-      </c>
-      <c r="E24" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="F24" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="H24" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="I24" s="44">
+      <c r="B24" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="I24" s="43">
         <v>22</v>
       </c>
-      <c r="J24" s="44">
-        <v>0</v>
-      </c>
-      <c r="K24" s="44">
+      <c r="J24" s="43">
+        <v>0</v>
+      </c>
+      <c r="K24" s="43">
         <v>17</v>
       </c>
-      <c r="L24" s="44">
+      <c r="L24" s="43">
         <v>2</v>
       </c>
-      <c r="M24" s="44">
+      <c r="M24" s="43">
         <v>2</v>
       </c>
-      <c r="N24" s="44">
+      <c r="N24" s="43">
         <v>2</v>
       </c>
       <c r="O24" s="1">
@@ -8271,74 +8581,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:84" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="39">
+    <row r="25" spans="1:84" ht="54.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="38">
         <v>21</v>
       </c>
-      <c r="B25" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="D25" s="97" t="s">
-        <v>252</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="H25" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="I25" s="44">
+      <c r="B25" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="I25" s="43">
         <v>35</v>
       </c>
-      <c r="J25" s="44">
-        <v>1</v>
-      </c>
-      <c r="K25" s="44">
+      <c r="J25" s="43">
+        <v>1</v>
+      </c>
+      <c r="K25" s="43">
         <v>35</v>
       </c>
-      <c r="L25" s="44">
+      <c r="L25" s="43">
         <v>2</v>
       </c>
-      <c r="M25" s="44">
-        <v>0</v>
-      </c>
-      <c r="N25" s="44">
+      <c r="M25" s="43">
+        <v>0</v>
+      </c>
+      <c r="N25" s="43">
         <v>2</v>
       </c>
-      <c r="O25" s="58">
-        <v>1</v>
-      </c>
-      <c r="P25" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="29">
-        <v>0</v>
-      </c>
-      <c r="R25" s="39">
-        <v>0</v>
-      </c>
-      <c r="S25" s="39">
-        <v>0</v>
-      </c>
-      <c r="T25" s="39">
-        <v>0</v>
-      </c>
-      <c r="U25" s="39">
-        <v>0</v>
-      </c>
-      <c r="V25" s="39">
-        <v>0</v>
-      </c>
-      <c r="W25" s="41">
+      <c r="O25" s="57">
+        <v>1</v>
+      </c>
+      <c r="P25" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="28">
+        <v>0</v>
+      </c>
+      <c r="R25" s="38">
+        <v>0</v>
+      </c>
+      <c r="S25" s="38">
+        <v>0</v>
+      </c>
+      <c r="T25" s="38">
+        <v>0</v>
+      </c>
+      <c r="U25" s="38">
+        <v>0</v>
+      </c>
+      <c r="V25" s="38">
+        <v>0</v>
+      </c>
+      <c r="W25" s="40">
         <v>1</v>
       </c>
       <c r="X25" s="16">
@@ -8347,252 +8657,252 @@
       <c r="Y25" s="16">
         <v>5500000</v>
       </c>
-      <c r="Z25" s="45">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="29">
+      <c r="Z25" s="44">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="28">
         <v>48</v>
       </c>
-      <c r="AB25" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="39">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="39">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="39">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="39">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="39">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="39">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="39">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="39">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="39">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="39">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="39">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="39">
-        <v>1</v>
-      </c>
-      <c r="AP25" s="39">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="39">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="39">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="39">
-        <v>1</v>
-      </c>
-      <c r="AT25" s="39">
-        <v>1</v>
-      </c>
-      <c r="AU25" s="39">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="39">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="39">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="39">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="39">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BA25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="39">
-        <v>1</v>
-      </c>
-      <c r="BC25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BE25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BF25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BG25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BH25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BI25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BJ25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BK25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BL25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BM25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BN25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BO25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BP25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BQ25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BR25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BS25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BT25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BU25" s="39">
-        <v>1</v>
-      </c>
-      <c r="BV25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BW25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BX25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BY25" s="39">
-        <v>0</v>
-      </c>
-      <c r="BZ25" s="39">
-        <v>1</v>
-      </c>
-      <c r="CA25" s="39">
-        <v>1</v>
-      </c>
-      <c r="CB25" s="39">
-        <v>0</v>
-      </c>
-      <c r="CC25" s="39">
-        <v>1</v>
-      </c>
-      <c r="CD25" s="39">
-        <v>1</v>
-      </c>
-      <c r="CE25" s="39">
-        <v>0</v>
-      </c>
-      <c r="CF25" s="39">
+      <c r="AB25" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="38">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="38">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="38">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="38">
+        <v>1</v>
+      </c>
+      <c r="BC25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BI25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BJ25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BL25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BM25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BP25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BQ25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BR25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BS25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BT25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BU25" s="38">
+        <v>1</v>
+      </c>
+      <c r="BV25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BW25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BX25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BY25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BZ25" s="38">
+        <v>1</v>
+      </c>
+      <c r="CA25" s="38">
+        <v>1</v>
+      </c>
+      <c r="CB25" s="38">
+        <v>0</v>
+      </c>
+      <c r="CC25" s="38">
+        <v>1</v>
+      </c>
+      <c r="CD25" s="38">
+        <v>1</v>
+      </c>
+      <c r="CE25" s="38">
+        <v>0</v>
+      </c>
+      <c r="CF25" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:84" ht="45.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="39">
+    <row r="26" spans="1:84" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="38">
         <v>22</v>
       </c>
-      <c r="B26" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" s="98" t="s">
-        <v>243</v>
-      </c>
-      <c r="D26" s="99" t="s">
-        <v>249</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="I26" s="44">
+      <c r="B26" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="88" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="I26" s="43">
         <v>6</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="43">
         <v>3</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="43">
         <v>2</v>
       </c>
-      <c r="L26" s="44">
-        <v>0</v>
-      </c>
-      <c r="M26" s="43">
-        <v>0</v>
-      </c>
-      <c r="N26" s="43">
-        <v>0</v>
-      </c>
-      <c r="O26" s="58">
-        <v>0</v>
-      </c>
-      <c r="P26" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="29">
-        <v>0</v>
-      </c>
-      <c r="R26" s="39">
-        <v>0</v>
-      </c>
-      <c r="S26" s="39">
-        <v>1</v>
-      </c>
-      <c r="T26" s="39">
-        <v>0</v>
-      </c>
-      <c r="U26" s="39">
-        <v>0</v>
-      </c>
-      <c r="V26" s="39">
-        <v>0</v>
-      </c>
-      <c r="W26" s="41">
+      <c r="L26" s="43">
+        <v>0</v>
+      </c>
+      <c r="M26" s="42">
+        <v>0</v>
+      </c>
+      <c r="N26" s="42">
+        <v>0</v>
+      </c>
+      <c r="O26" s="57">
+        <v>0</v>
+      </c>
+      <c r="P26" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="28">
+        <v>0</v>
+      </c>
+      <c r="R26" s="38">
+        <v>0</v>
+      </c>
+      <c r="S26" s="38">
+        <v>1</v>
+      </c>
+      <c r="T26" s="38">
+        <v>0</v>
+      </c>
+      <c r="U26" s="38">
+        <v>0</v>
+      </c>
+      <c r="V26" s="38">
+        <v>0</v>
+      </c>
+      <c r="W26" s="40">
         <v>1</v>
       </c>
       <c r="X26" s="16">
@@ -8601,462 +8911,462 @@
       <c r="Y26" s="16">
         <v>1073650</v>
       </c>
-      <c r="Z26" s="45">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="29">
+      <c r="Z26" s="44">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="28">
         <v>30</v>
       </c>
-      <c r="AB26" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="39">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="39">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="39">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="39">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="39">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="39">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="39">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="39">
-        <v>1</v>
-      </c>
-      <c r="AL26" s="39">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="39">
-        <v>1</v>
-      </c>
-      <c r="AN26" s="39">
-        <v>1</v>
-      </c>
-      <c r="AO26" s="39">
-        <v>0</v>
-      </c>
-      <c r="AP26" s="39">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="39">
-        <v>1</v>
-      </c>
-      <c r="AR26" s="39">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="39">
-        <v>1</v>
-      </c>
-      <c r="AT26" s="39">
-        <v>0</v>
-      </c>
-      <c r="AU26" s="39">
-        <v>0</v>
-      </c>
-      <c r="AV26" s="39">
-        <v>1</v>
-      </c>
-      <c r="AW26" s="39">
-        <v>0</v>
-      </c>
-      <c r="AX26" s="39">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="39">
-        <v>1</v>
-      </c>
-      <c r="AZ26" s="39">
-        <v>0</v>
-      </c>
-      <c r="BA26" s="39">
-        <v>1</v>
-      </c>
-      <c r="BB26" s="39">
-        <v>1</v>
-      </c>
-      <c r="BC26" s="39">
-        <v>0</v>
-      </c>
-      <c r="BD26" s="39">
-        <v>0</v>
-      </c>
-      <c r="BE26" s="39">
-        <v>1</v>
-      </c>
-      <c r="BF26" s="39">
-        <v>1</v>
-      </c>
-      <c r="BG26" s="39">
-        <v>0</v>
-      </c>
-      <c r="BH26" s="39">
-        <v>0</v>
-      </c>
-      <c r="BI26" s="39">
-        <v>0</v>
-      </c>
-      <c r="BJ26" s="39">
-        <v>0</v>
-      </c>
-      <c r="BK26" s="39">
-        <v>0</v>
-      </c>
-      <c r="BL26" s="39">
-        <v>1</v>
-      </c>
-      <c r="BM26" s="39">
-        <v>0</v>
-      </c>
-      <c r="BN26" s="39">
-        <v>0</v>
-      </c>
-      <c r="BO26" s="39">
-        <v>0</v>
-      </c>
-      <c r="BP26" s="39">
-        <v>0</v>
-      </c>
-      <c r="BQ26" s="39">
-        <v>0</v>
-      </c>
-      <c r="BR26" s="39">
-        <v>0</v>
-      </c>
-      <c r="BS26" s="39">
-        <v>0</v>
-      </c>
-      <c r="BT26" s="39">
-        <v>1</v>
-      </c>
-      <c r="BU26" s="39">
-        <v>1</v>
-      </c>
-      <c r="BV26" s="39">
-        <v>0</v>
-      </c>
-      <c r="BW26" s="39">
-        <v>0</v>
-      </c>
-      <c r="BX26" s="39">
-        <v>0</v>
-      </c>
-      <c r="BY26" s="39">
-        <v>1</v>
-      </c>
-      <c r="BZ26" s="39">
-        <v>1</v>
-      </c>
-      <c r="CA26" s="39">
-        <v>0</v>
-      </c>
-      <c r="CB26" s="39">
-        <v>0</v>
-      </c>
-      <c r="CC26" s="39">
-        <v>0</v>
-      </c>
-      <c r="CD26" s="39">
-        <v>0</v>
-      </c>
-      <c r="CE26" s="39">
-        <v>1</v>
-      </c>
-      <c r="CF26" s="39">
+      <c r="AB26" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="38">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="38">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="38">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="38">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="38">
+        <v>1</v>
+      </c>
+      <c r="AW26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="38">
+        <v>1</v>
+      </c>
+      <c r="AZ26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="38">
+        <v>1</v>
+      </c>
+      <c r="BB26" s="38">
+        <v>1</v>
+      </c>
+      <c r="BC26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="38">
+        <v>1</v>
+      </c>
+      <c r="BF26" s="38">
+        <v>1</v>
+      </c>
+      <c r="BG26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BL26" s="38">
+        <v>1</v>
+      </c>
+      <c r="BM26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BP26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BR26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BS26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BT26" s="38">
+        <v>1</v>
+      </c>
+      <c r="BU26" s="38">
+        <v>1</v>
+      </c>
+      <c r="BV26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BW26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BX26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BY26" s="38">
+        <v>1</v>
+      </c>
+      <c r="BZ26" s="38">
+        <v>1</v>
+      </c>
+      <c r="CA26" s="38">
+        <v>0</v>
+      </c>
+      <c r="CB26" s="38">
+        <v>0</v>
+      </c>
+      <c r="CC26" s="38">
+        <v>0</v>
+      </c>
+      <c r="CD26" s="38">
+        <v>0</v>
+      </c>
+      <c r="CE26" s="38">
+        <v>1</v>
+      </c>
+      <c r="CF26" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:84" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
+    <row r="27" spans="1:84" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="38">
         <v>23</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>244</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="I27" s="43">
+        <v>6</v>
+      </c>
+      <c r="J27" s="43">
+        <v>15</v>
+      </c>
+      <c r="K27" s="43">
+        <v>2</v>
+      </c>
+      <c r="L27" s="43">
+        <v>1</v>
+      </c>
+      <c r="M27" s="43">
+        <v>1</v>
+      </c>
+      <c r="N27" s="43">
+        <v>11</v>
+      </c>
+      <c r="O27" s="53">
+        <v>0</v>
+      </c>
+      <c r="P27" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="28">
+        <v>0</v>
+      </c>
+      <c r="R27" s="38">
+        <v>0</v>
+      </c>
+      <c r="S27" s="38">
+        <v>1</v>
+      </c>
+      <c r="T27" s="38">
+        <v>0</v>
+      </c>
+      <c r="U27" s="38">
+        <v>0</v>
+      </c>
+      <c r="V27" s="38">
+        <v>0</v>
+      </c>
+      <c r="W27" s="40">
+        <v>1</v>
+      </c>
+      <c r="X27" s="59">
+        <v>700000</v>
+      </c>
+      <c r="Y27" s="60">
+        <v>700000</v>
+      </c>
+      <c r="Z27" s="60">
+        <v>50000</v>
+      </c>
+      <c r="AA27" s="28">
+        <v>24</v>
+      </c>
+      <c r="AB27" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="38">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="38">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="38">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="38">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="38">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="38">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="38">
+        <v>1</v>
+      </c>
+      <c r="AY27" s="38">
+        <v>1</v>
+      </c>
+      <c r="AZ27" s="38">
+        <v>1</v>
+      </c>
+      <c r="BA27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="38">
+        <v>1</v>
+      </c>
+      <c r="BD27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="38">
+        <v>1</v>
+      </c>
+      <c r="BG27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BI27" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="BJ27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BL27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BM27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO27" s="39">
+        <v>0.15</v>
+      </c>
+      <c r="BP27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BR27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BS27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BT27" s="38">
+        <v>1</v>
+      </c>
+      <c r="BU27" s="38">
+        <v>1</v>
+      </c>
+      <c r="BV27" s="38">
+        <v>1</v>
+      </c>
+      <c r="BW27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BX27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BY27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BZ27" s="38">
+        <v>1</v>
+      </c>
+      <c r="CA27" s="38">
+        <v>0</v>
+      </c>
+      <c r="CB27" s="38">
+        <v>1</v>
+      </c>
+      <c r="CC27" s="38">
+        <v>0</v>
+      </c>
+      <c r="CD27" s="38">
+        <v>0</v>
+      </c>
+      <c r="CE27" s="38">
+        <v>1</v>
+      </c>
+      <c r="CF27" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:84" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="38">
+        <v>24</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="H28" s="19" t="s">
         <v>201</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="D27" s="71" t="s">
-        <v>253</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="G27" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="I27" s="44">
-        <v>6</v>
-      </c>
-      <c r="J27" s="44">
-        <v>15</v>
-      </c>
-      <c r="K27" s="44">
-        <v>2</v>
-      </c>
-      <c r="L27" s="44">
-        <v>1</v>
-      </c>
-      <c r="M27" s="44">
-        <v>1</v>
-      </c>
-      <c r="N27" s="44">
-        <v>11</v>
-      </c>
-      <c r="O27" s="54">
-        <v>0</v>
-      </c>
-      <c r="P27" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="29">
-        <v>0</v>
-      </c>
-      <c r="R27" s="39">
-        <v>0</v>
-      </c>
-      <c r="S27" s="39">
-        <v>1</v>
-      </c>
-      <c r="T27" s="39">
-        <v>0</v>
-      </c>
-      <c r="U27" s="39">
-        <v>0</v>
-      </c>
-      <c r="V27" s="39">
-        <v>0</v>
-      </c>
-      <c r="W27" s="41">
-        <v>1</v>
-      </c>
-      <c r="X27" s="60">
-        <v>700000</v>
-      </c>
-      <c r="Y27" s="61">
-        <v>700000</v>
-      </c>
-      <c r="Z27" s="61">
-        <v>50000</v>
-      </c>
-      <c r="AA27" s="29">
-        <v>24</v>
-      </c>
-      <c r="AB27" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="39">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="39">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="39">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="39">
-        <v>1</v>
-      </c>
-      <c r="AL27" s="39">
-        <v>1</v>
-      </c>
-      <c r="AM27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="39">
-        <v>1</v>
-      </c>
-      <c r="AP27" s="39">
-        <v>1</v>
-      </c>
-      <c r="AQ27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AR27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="39">
-        <v>1</v>
-      </c>
-      <c r="AU27" s="39">
-        <v>1</v>
-      </c>
-      <c r="AV27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AW27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AX27" s="39">
-        <v>1</v>
-      </c>
-      <c r="AY27" s="39">
-        <v>1</v>
-      </c>
-      <c r="AZ27" s="39">
-        <v>1</v>
-      </c>
-      <c r="BA27" s="39">
-        <v>0</v>
-      </c>
-      <c r="BB27" s="39">
-        <v>0</v>
-      </c>
-      <c r="BC27" s="39">
-        <v>1</v>
-      </c>
-      <c r="BD27" s="39">
-        <v>0</v>
-      </c>
-      <c r="BE27" s="39">
-        <v>0</v>
-      </c>
-      <c r="BF27" s="39">
-        <v>1</v>
-      </c>
-      <c r="BG27" s="39">
-        <v>0</v>
-      </c>
-      <c r="BH27" s="39">
-        <v>0</v>
-      </c>
-      <c r="BI27" s="40">
-        <v>0.4</v>
-      </c>
-      <c r="BJ27" s="39">
-        <v>0</v>
-      </c>
-      <c r="BK27" s="39">
-        <v>0</v>
-      </c>
-      <c r="BL27" s="39">
-        <v>0</v>
-      </c>
-      <c r="BM27" s="39">
-        <v>0</v>
-      </c>
-      <c r="BN27" s="39">
-        <v>0</v>
-      </c>
-      <c r="BO27" s="40">
-        <v>0.15</v>
-      </c>
-      <c r="BP27" s="39">
-        <v>0</v>
-      </c>
-      <c r="BQ27" s="39">
-        <v>0</v>
-      </c>
-      <c r="BR27" s="39">
-        <v>0</v>
-      </c>
-      <c r="BS27" s="39">
-        <v>0</v>
-      </c>
-      <c r="BT27" s="39">
-        <v>1</v>
-      </c>
-      <c r="BU27" s="39">
-        <v>1</v>
-      </c>
-      <c r="BV27" s="39">
-        <v>1</v>
-      </c>
-      <c r="BW27" s="39">
-        <v>0</v>
-      </c>
-      <c r="BX27" s="39">
-        <v>0</v>
-      </c>
-      <c r="BY27" s="39">
-        <v>0</v>
-      </c>
-      <c r="BZ27" s="39">
-        <v>1</v>
-      </c>
-      <c r="CA27" s="39">
-        <v>0</v>
-      </c>
-      <c r="CB27" s="39">
-        <v>1</v>
-      </c>
-      <c r="CC27" s="39">
-        <v>0</v>
-      </c>
-      <c r="CD27" s="39">
-        <v>0</v>
-      </c>
-      <c r="CE27" s="39">
-        <v>1</v>
-      </c>
-      <c r="CF27" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:84" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
-        <v>24</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="D28" s="71" t="s">
-        <v>250</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>210</v>
       </c>
       <c r="I28" s="19">
         <v>6</v>
@@ -9076,241 +9386,241 @@
       <c r="N28" s="19">
         <v>0</v>
       </c>
-      <c r="O28" s="54">
-        <v>0</v>
-      </c>
-      <c r="P28" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="29">
-        <v>0</v>
-      </c>
-      <c r="R28" s="39">
-        <v>0</v>
-      </c>
-      <c r="S28" s="39">
-        <v>0</v>
-      </c>
-      <c r="T28" s="39">
-        <v>1</v>
-      </c>
-      <c r="U28" s="39">
-        <v>0</v>
-      </c>
-      <c r="V28" s="39">
-        <v>1</v>
-      </c>
-      <c r="W28" s="41">
-        <v>0</v>
-      </c>
-      <c r="X28" s="62">
+      <c r="O28" s="53">
+        <v>0</v>
+      </c>
+      <c r="P28" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="28">
+        <v>0</v>
+      </c>
+      <c r="R28" s="38">
+        <v>0</v>
+      </c>
+      <c r="S28" s="38">
+        <v>0</v>
+      </c>
+      <c r="T28" s="38">
+        <v>1</v>
+      </c>
+      <c r="U28" s="38">
+        <v>0</v>
+      </c>
+      <c r="V28" s="38">
+        <v>1</v>
+      </c>
+      <c r="W28" s="40">
+        <v>0</v>
+      </c>
+      <c r="X28" s="61">
         <v>665968</v>
       </c>
-      <c r="Y28" s="63">
+      <c r="Y28" s="62">
         <v>665968</v>
       </c>
-      <c r="Z28" s="45">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="29">
+      <c r="Z28" s="44">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="28">
         <v>24</v>
       </c>
-      <c r="AB28" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="39">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="39">
-        <v>1</v>
-      </c>
-      <c r="AL28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="39">
-        <v>1</v>
-      </c>
-      <c r="AO28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="39">
-        <v>1</v>
-      </c>
-      <c r="AQ28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AR28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="39">
-        <v>1</v>
-      </c>
-      <c r="AU28" s="39">
-        <v>1</v>
-      </c>
-      <c r="AV28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AX28" s="39">
-        <v>1</v>
-      </c>
-      <c r="AY28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AZ28" s="39">
-        <v>1</v>
-      </c>
-      <c r="BA28" s="39">
-        <v>1</v>
-      </c>
-      <c r="BB28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BC28" s="39">
-        <v>1</v>
-      </c>
-      <c r="BD28" s="39">
-        <v>1</v>
-      </c>
-      <c r="BE28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BF28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BG28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BH28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BI28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BJ28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BK28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BL28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BM28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BN28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BO28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BP28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BQ28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BR28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BS28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BT28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BU28" s="39">
-        <v>1</v>
-      </c>
-      <c r="BV28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BW28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BX28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BY28" s="39">
-        <v>0</v>
-      </c>
-      <c r="BZ28" s="39">
-        <v>1</v>
-      </c>
-      <c r="CA28" s="39">
-        <v>0</v>
-      </c>
-      <c r="CB28" s="39">
-        <v>1</v>
-      </c>
-      <c r="CC28" s="39">
-        <v>1</v>
-      </c>
-      <c r="CD28" s="39">
-        <v>0</v>
-      </c>
-      <c r="CE28" s="39">
-        <v>0</v>
-      </c>
-      <c r="CF28" s="39">
+      <c r="AB28" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="38">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="38">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="38">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="38">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="38">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="38">
+        <v>1</v>
+      </c>
+      <c r="AY28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="38">
+        <v>1</v>
+      </c>
+      <c r="BA28" s="38">
+        <v>1</v>
+      </c>
+      <c r="BB28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="38">
+        <v>1</v>
+      </c>
+      <c r="BD28" s="38">
+        <v>1</v>
+      </c>
+      <c r="BE28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BH28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BI28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BL28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BM28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BP28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BQ28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BR28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BS28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BT28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BU28" s="38">
+        <v>1</v>
+      </c>
+      <c r="BV28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BW28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BX28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BY28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BZ28" s="38">
+        <v>1</v>
+      </c>
+      <c r="CA28" s="38">
+        <v>0</v>
+      </c>
+      <c r="CB28" s="38">
+        <v>1</v>
+      </c>
+      <c r="CC28" s="38">
+        <v>1</v>
+      </c>
+      <c r="CD28" s="38">
+        <v>0</v>
+      </c>
+      <c r="CE28" s="38">
+        <v>0</v>
+      </c>
+      <c r="CF28" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:84" ht="94.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="39">
+    <row r="29" spans="1:84" ht="108.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="38">
         <v>25</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C29" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="D29" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="D29" s="100" t="s">
-        <v>252</v>
-      </c>
-      <c r="E29" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="F29" s="91" t="s">
-        <v>213</v>
+      <c r="E29" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="81" t="s">
+        <v>204</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="H29" s="65" t="s">
-        <v>215</v>
+        <v>205</v>
+      </c>
+      <c r="H29" s="64" t="s">
+        <v>206</v>
       </c>
       <c r="I29" s="19">
         <v>6</v>
@@ -9318,253 +9628,253 @@
       <c r="J29" s="19">
         <v>4</v>
       </c>
-      <c r="K29" s="65">
+      <c r="K29" s="64">
         <v>4</v>
       </c>
-      <c r="L29" s="65">
-        <v>1</v>
-      </c>
-      <c r="M29" s="65">
+      <c r="L29" s="64">
+        <v>1</v>
+      </c>
+      <c r="M29" s="64">
         <v>4</v>
       </c>
-      <c r="N29" s="65">
-        <v>1</v>
-      </c>
-      <c r="O29" s="54">
-        <v>0</v>
-      </c>
-      <c r="P29" s="54">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="29">
-        <v>0</v>
-      </c>
-      <c r="R29" s="39">
-        <v>0</v>
-      </c>
-      <c r="S29" s="39">
-        <v>0</v>
-      </c>
-      <c r="T29" s="39">
-        <v>0</v>
-      </c>
-      <c r="U29" s="39">
-        <v>0</v>
-      </c>
-      <c r="V29" s="39">
-        <v>1</v>
-      </c>
-      <c r="W29" s="41">
-        <v>0</v>
-      </c>
-      <c r="X29" s="66">
+      <c r="N29" s="64">
+        <v>1</v>
+      </c>
+      <c r="O29" s="53">
+        <v>0</v>
+      </c>
+      <c r="P29" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="28">
+        <v>0</v>
+      </c>
+      <c r="R29" s="38">
+        <v>0</v>
+      </c>
+      <c r="S29" s="38">
+        <v>0</v>
+      </c>
+      <c r="T29" s="38">
+        <v>0</v>
+      </c>
+      <c r="U29" s="38">
+        <v>0</v>
+      </c>
+      <c r="V29" s="38">
+        <v>1</v>
+      </c>
+      <c r="W29" s="40">
+        <v>0</v>
+      </c>
+      <c r="X29" s="65">
         <v>1000000</v>
       </c>
-      <c r="Y29" s="66">
+      <c r="Y29" s="65">
         <v>1000000</v>
       </c>
-      <c r="Z29" s="45">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="29">
+      <c r="Z29" s="44">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="28">
         <v>36</v>
       </c>
-      <c r="AB29" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="39">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="39">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="39">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="39">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="39">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="39">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="39">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="39">
-        <v>1</v>
-      </c>
-      <c r="AL29" s="39">
-        <v>1</v>
-      </c>
-      <c r="AM29" s="39">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="39">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="39">
-        <v>1</v>
-      </c>
-      <c r="AP29" s="39">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="39">
-        <v>0</v>
-      </c>
-      <c r="AR29" s="39">
-        <v>0</v>
-      </c>
-      <c r="AS29" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT29" s="39">
-        <v>1</v>
-      </c>
-      <c r="AU29" s="39">
-        <v>0</v>
-      </c>
-      <c r="AV29" s="39">
-        <v>0</v>
-      </c>
-      <c r="AW29" s="39">
-        <v>0</v>
-      </c>
-      <c r="AX29" s="39">
-        <v>0</v>
-      </c>
-      <c r="AY29" s="39">
-        <v>1</v>
-      </c>
-      <c r="AZ29" s="39">
-        <v>1</v>
-      </c>
-      <c r="BA29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BB29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BC29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BD29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BE29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BF29" s="39">
-        <v>1</v>
-      </c>
-      <c r="BG29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BH29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BI29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BJ29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BK29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BL29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BM29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BN29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BO29" s="39">
-        <v>1</v>
-      </c>
-      <c r="BP29" s="39">
-        <v>1</v>
-      </c>
-      <c r="BQ29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BR29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BS29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BT29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BU29" s="39">
-        <v>1</v>
-      </c>
-      <c r="BV29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BW29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BX29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BY29" s="39">
-        <v>0</v>
-      </c>
-      <c r="BZ29" s="39">
-        <v>1</v>
-      </c>
-      <c r="CA29" s="39">
-        <v>0</v>
-      </c>
-      <c r="CB29" s="39">
-        <v>0</v>
-      </c>
-      <c r="CC29" s="39">
-        <v>1</v>
-      </c>
-      <c r="CD29" s="39">
-        <v>0</v>
-      </c>
-      <c r="CE29" s="39">
-        <v>0</v>
-      </c>
-      <c r="CF29" s="39">
+      <c r="AB29" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="38">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="38">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="38">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="38">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="38">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="38">
+        <v>1</v>
+      </c>
+      <c r="BA29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="38">
+        <v>1</v>
+      </c>
+      <c r="BG29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BH29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BI29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BL29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BM29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO29" s="38">
+        <v>1</v>
+      </c>
+      <c r="BP29" s="38">
+        <v>1</v>
+      </c>
+      <c r="BQ29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BR29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BS29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BT29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BU29" s="38">
+        <v>1</v>
+      </c>
+      <c r="BV29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BW29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BX29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BY29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BZ29" s="38">
+        <v>1</v>
+      </c>
+      <c r="CA29" s="38">
+        <v>0</v>
+      </c>
+      <c r="CB29" s="38">
+        <v>0</v>
+      </c>
+      <c r="CC29" s="38">
+        <v>1</v>
+      </c>
+      <c r="CD29" s="38">
+        <v>0</v>
+      </c>
+      <c r="CE29" s="38">
+        <v>0</v>
+      </c>
+      <c r="CF29" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:84" ht="57.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="39">
+    <row r="30" spans="1:84" ht="55.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="38">
         <v>26</v>
       </c>
-      <c r="B30" s="67" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" s="93" t="s">
-        <v>241</v>
-      </c>
-      <c r="D30" s="71" t="s">
-        <v>245</v>
-      </c>
-      <c r="E30" s="93" t="s">
-        <v>258</v>
-      </c>
-      <c r="F30" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="H30" s="68" t="s">
-        <v>217</v>
+      <c r="B30" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30" s="83" t="s">
+        <v>249</v>
+      </c>
+      <c r="F30" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="67" t="s">
+        <v>208</v>
       </c>
       <c r="I30" s="19">
         <v>90</v>
@@ -9584,241 +9894,241 @@
       <c r="N30" s="19">
         <v>42</v>
       </c>
-      <c r="O30" s="54">
-        <v>0</v>
-      </c>
-      <c r="P30" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="29">
-        <v>0</v>
-      </c>
-      <c r="R30" s="39">
-        <v>0</v>
-      </c>
-      <c r="S30" s="39">
-        <v>1</v>
-      </c>
-      <c r="T30" s="39">
-        <v>0</v>
-      </c>
-      <c r="U30" s="39">
-        <v>0</v>
-      </c>
-      <c r="V30" s="39">
-        <v>1</v>
-      </c>
-      <c r="W30" s="41">
-        <v>1</v>
-      </c>
-      <c r="X30" s="69">
+      <c r="O30" s="53">
+        <v>0</v>
+      </c>
+      <c r="P30" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="28">
+        <v>0</v>
+      </c>
+      <c r="R30" s="38">
+        <v>0</v>
+      </c>
+      <c r="S30" s="38">
+        <v>1</v>
+      </c>
+      <c r="T30" s="38">
+        <v>0</v>
+      </c>
+      <c r="U30" s="38">
+        <v>0</v>
+      </c>
+      <c r="V30" s="38">
+        <v>1</v>
+      </c>
+      <c r="W30" s="40">
+        <v>1</v>
+      </c>
+      <c r="X30" s="68">
         <v>10573152.51</v>
       </c>
-      <c r="Y30" s="69">
+      <c r="Y30" s="68">
         <v>10573152.51</v>
       </c>
-      <c r="Z30" s="45">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="29">
+      <c r="Z30" s="44">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="28">
         <v>24</v>
       </c>
-      <c r="AB30" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="39">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="39">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="39">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="39">
-        <v>1</v>
-      </c>
-      <c r="AG30" s="39">
-        <v>1</v>
-      </c>
-      <c r="AH30" s="39">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="39">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="39">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="39">
-        <v>1</v>
-      </c>
-      <c r="AL30" s="39">
-        <v>1</v>
-      </c>
-      <c r="AM30" s="39">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="39">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="39">
-        <v>1</v>
-      </c>
-      <c r="AP30" s="39">
-        <v>1</v>
-      </c>
-      <c r="AQ30" s="39">
-        <v>0</v>
-      </c>
-      <c r="AR30" s="39">
-        <v>0</v>
-      </c>
-      <c r="AS30" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT30" s="39">
-        <v>0</v>
-      </c>
-      <c r="AU30" s="39">
-        <v>1</v>
-      </c>
-      <c r="AV30" s="39">
-        <v>0</v>
-      </c>
-      <c r="AW30" s="39">
-        <v>0</v>
-      </c>
-      <c r="AX30" s="39">
-        <v>0</v>
-      </c>
-      <c r="AY30" s="39">
-        <v>1</v>
-      </c>
-      <c r="AZ30" s="39">
-        <v>1</v>
-      </c>
-      <c r="BA30" s="39">
-        <v>0</v>
-      </c>
-      <c r="BB30" s="39">
-        <v>0</v>
-      </c>
-      <c r="BC30" s="39">
-        <v>1</v>
-      </c>
-      <c r="BD30" s="39">
-        <v>0</v>
-      </c>
-      <c r="BE30" s="39">
-        <v>0</v>
-      </c>
-      <c r="BF30" s="39">
-        <v>1</v>
-      </c>
-      <c r="BG30" s="39">
-        <v>0</v>
-      </c>
-      <c r="BH30" s="39">
-        <v>0</v>
-      </c>
-      <c r="BI30" s="40">
+      <c r="AB30" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="38">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="38">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="38">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="38">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="38">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="38">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="38">
+        <v>1</v>
+      </c>
+      <c r="AV30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="38">
+        <v>1</v>
+      </c>
+      <c r="AZ30" s="38">
+        <v>1</v>
+      </c>
+      <c r="BA30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="38">
+        <v>1</v>
+      </c>
+      <c r="BD30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF30" s="38">
+        <v>1</v>
+      </c>
+      <c r="BG30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BH30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BI30" s="39">
         <v>0.25</v>
       </c>
-      <c r="BJ30" s="39">
-        <v>0</v>
-      </c>
-      <c r="BK30" s="39">
-        <v>0</v>
-      </c>
-      <c r="BL30" s="39">
-        <v>0</v>
-      </c>
-      <c r="BM30" s="39">
-        <v>0</v>
-      </c>
-      <c r="BN30" s="39">
-        <v>0</v>
-      </c>
-      <c r="BO30" s="39">
-        <v>0</v>
-      </c>
-      <c r="BP30" s="39">
-        <v>0</v>
-      </c>
-      <c r="BQ30" s="39">
-        <v>0</v>
-      </c>
-      <c r="BR30" s="39">
-        <v>0</v>
-      </c>
-      <c r="BS30" s="39">
-        <v>1</v>
-      </c>
-      <c r="BT30" s="39">
-        <v>0</v>
-      </c>
-      <c r="BU30" s="39">
-        <v>1</v>
-      </c>
-      <c r="BV30" s="39">
-        <v>0</v>
-      </c>
-      <c r="BW30" s="39">
-        <v>1</v>
-      </c>
-      <c r="BX30" s="39">
-        <v>0</v>
-      </c>
-      <c r="BY30" s="39">
-        <v>1</v>
-      </c>
-      <c r="BZ30" s="39">
-        <v>1</v>
-      </c>
-      <c r="CA30" s="39">
-        <v>0</v>
-      </c>
-      <c r="CB30" s="39">
-        <v>1</v>
-      </c>
-      <c r="CC30" s="39">
-        <v>0</v>
-      </c>
-      <c r="CD30" s="39">
-        <v>0</v>
-      </c>
-      <c r="CE30" s="39">
-        <v>0</v>
-      </c>
-      <c r="CF30" s="39">
+      <c r="BJ30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BL30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BM30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BP30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BQ30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BR30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BS30" s="38">
+        <v>1</v>
+      </c>
+      <c r="BT30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BU30" s="38">
+        <v>1</v>
+      </c>
+      <c r="BV30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BW30" s="38">
+        <v>1</v>
+      </c>
+      <c r="BX30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BY30" s="38">
+        <v>1</v>
+      </c>
+      <c r="BZ30" s="38">
+        <v>1</v>
+      </c>
+      <c r="CA30" s="38">
+        <v>0</v>
+      </c>
+      <c r="CB30" s="38">
+        <v>1</v>
+      </c>
+      <c r="CC30" s="38">
+        <v>0</v>
+      </c>
+      <c r="CD30" s="38">
+        <v>0</v>
+      </c>
+      <c r="CE30" s="38">
+        <v>0</v>
+      </c>
+      <c r="CF30" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:84" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="39">
+    <row r="31" spans="1:84" ht="36.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="38">
         <v>27</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="D31" s="71" t="s">
-        <v>245</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>220</v>
+        <v>209</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>211</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>222</v>
+        <v>212</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>213</v>
       </c>
       <c r="I31" s="19">
         <v>20</v>
@@ -9838,241 +10148,241 @@
       <c r="N31" s="19">
         <v>3</v>
       </c>
-      <c r="O31" s="54">
-        <v>0</v>
-      </c>
-      <c r="P31" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="29">
-        <v>0</v>
-      </c>
-      <c r="R31" s="39">
-        <v>0</v>
-      </c>
-      <c r="S31" s="39">
-        <v>1</v>
-      </c>
-      <c r="T31" s="39">
-        <v>0</v>
-      </c>
-      <c r="U31" s="39">
-        <v>0</v>
-      </c>
-      <c r="V31" s="39">
-        <v>1</v>
-      </c>
-      <c r="W31" s="41">
-        <v>1</v>
-      </c>
-      <c r="X31" s="69">
+      <c r="O31" s="53">
+        <v>0</v>
+      </c>
+      <c r="P31" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="28">
+        <v>0</v>
+      </c>
+      <c r="R31" s="38">
+        <v>0</v>
+      </c>
+      <c r="S31" s="38">
+        <v>1</v>
+      </c>
+      <c r="T31" s="38">
+        <v>0</v>
+      </c>
+      <c r="U31" s="38">
+        <v>0</v>
+      </c>
+      <c r="V31" s="38">
+        <v>1</v>
+      </c>
+      <c r="W31" s="40">
+        <v>1</v>
+      </c>
+      <c r="X31" s="68">
         <v>12864000</v>
       </c>
-      <c r="Y31" s="69">
+      <c r="Y31" s="68">
         <v>12864000</v>
       </c>
-      <c r="Z31" s="45">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="29">
+      <c r="Z31" s="44">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="28">
         <v>24</v>
       </c>
-      <c r="AB31" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="39">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="39">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="39">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="39">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="39">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="39">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="39">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="39">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="39">
-        <v>1</v>
-      </c>
-      <c r="AL31" s="39">
-        <v>1</v>
-      </c>
-      <c r="AM31" s="39">
-        <v>1</v>
-      </c>
-      <c r="AN31" s="39">
-        <v>1</v>
-      </c>
-      <c r="AO31" s="39">
-        <v>1</v>
-      </c>
-      <c r="AP31" s="39">
-        <v>1</v>
-      </c>
-      <c r="AQ31" s="39">
-        <v>0</v>
-      </c>
-      <c r="AR31" s="39">
-        <v>1</v>
-      </c>
-      <c r="AS31" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT31" s="39">
-        <v>0</v>
-      </c>
-      <c r="AU31" s="39">
-        <v>0</v>
-      </c>
-      <c r="AV31" s="39">
-        <v>0</v>
-      </c>
-      <c r="AW31" s="39">
-        <v>0</v>
-      </c>
-      <c r="AX31" s="39">
-        <v>0</v>
-      </c>
-      <c r="AY31" s="39">
-        <v>1</v>
-      </c>
-      <c r="AZ31" s="39">
-        <v>1</v>
-      </c>
-      <c r="BA31" s="39">
-        <v>1</v>
-      </c>
-      <c r="BB31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BC31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BD31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BE31" s="39">
-        <v>1</v>
-      </c>
-      <c r="BF31" s="39">
-        <v>1</v>
-      </c>
-      <c r="BG31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BH31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BI31" s="39">
-        <v>1</v>
-      </c>
-      <c r="BJ31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BK31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BL31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BM31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BN31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BO31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BP31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BQ31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BR31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BS31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BT31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BU31" s="39">
-        <v>1</v>
-      </c>
-      <c r="BV31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BW31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BX31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BY31" s="39">
-        <v>0</v>
-      </c>
-      <c r="BZ31" s="39">
-        <v>1</v>
-      </c>
-      <c r="CA31" s="39">
-        <v>0</v>
-      </c>
-      <c r="CB31" s="39">
-        <v>1</v>
-      </c>
-      <c r="CC31" s="39">
-        <v>0</v>
-      </c>
-      <c r="CD31" s="39">
-        <v>0</v>
-      </c>
-      <c r="CE31" s="39">
-        <v>0</v>
-      </c>
-      <c r="CF31" s="39">
+      <c r="AB31" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="38">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="38">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="38">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="38">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="38">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="38">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="38">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="38">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="38">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="38">
+        <v>1</v>
+      </c>
+      <c r="AS31" s="38">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="38">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="38">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="38">
+        <v>1</v>
+      </c>
+      <c r="AZ31" s="38">
+        <v>1</v>
+      </c>
+      <c r="BA31" s="38">
+        <v>1</v>
+      </c>
+      <c r="BB31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE31" s="38">
+        <v>1</v>
+      </c>
+      <c r="BF31" s="38">
+        <v>1</v>
+      </c>
+      <c r="BG31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BH31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BI31" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BL31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BM31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BP31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BQ31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BR31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BS31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BT31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BU31" s="38">
+        <v>1</v>
+      </c>
+      <c r="BV31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BW31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BX31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BY31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BZ31" s="38">
+        <v>1</v>
+      </c>
+      <c r="CA31" s="38">
+        <v>0</v>
+      </c>
+      <c r="CB31" s="38">
+        <v>1</v>
+      </c>
+      <c r="CC31" s="38">
+        <v>0</v>
+      </c>
+      <c r="CD31" s="38">
+        <v>0</v>
+      </c>
+      <c r="CE31" s="38">
+        <v>0</v>
+      </c>
+      <c r="CF31" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="39">
+    <row r="32" spans="1:84" ht="36.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="38">
         <v>28</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="D32" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>225</v>
+        <v>214</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>216</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>227</v>
+        <v>217</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>218</v>
       </c>
       <c r="I32" s="19">
         <v>2</v>
@@ -10092,31 +10402,31 @@
       <c r="N32" s="19">
         <v>0</v>
       </c>
-      <c r="O32" s="54">
-        <v>0</v>
-      </c>
-      <c r="P32" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="29">
-        <v>0</v>
-      </c>
-      <c r="R32" s="39">
-        <v>0</v>
-      </c>
-      <c r="S32" s="39">
-        <v>0</v>
-      </c>
-      <c r="T32" s="39">
-        <v>1</v>
-      </c>
-      <c r="U32" s="39">
-        <v>0</v>
-      </c>
-      <c r="V32" s="39">
-        <v>0</v>
-      </c>
-      <c r="W32" s="41">
+      <c r="O32" s="53">
+        <v>0</v>
+      </c>
+      <c r="P32" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="28">
+        <v>0</v>
+      </c>
+      <c r="R32" s="38">
+        <v>0</v>
+      </c>
+      <c r="S32" s="38">
+        <v>0</v>
+      </c>
+      <c r="T32" s="38">
+        <v>1</v>
+      </c>
+      <c r="U32" s="38">
+        <v>0</v>
+      </c>
+      <c r="V32" s="38">
+        <v>0</v>
+      </c>
+      <c r="W32" s="40">
         <v>1</v>
       </c>
       <c r="X32" s="16">
@@ -10125,208 +10435,208 @@
       <c r="Y32" s="16">
         <v>200000</v>
       </c>
-      <c r="Z32" s="45">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="29">
+      <c r="Z32" s="44">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="28">
         <v>9</v>
       </c>
-      <c r="AB32" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="39">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="39">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="39">
-        <v>1</v>
-      </c>
-      <c r="AG32" s="39">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="39">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="39">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="39">
-        <v>1</v>
-      </c>
-      <c r="AK32" s="39">
-        <v>1</v>
-      </c>
-      <c r="AL32" s="39">
-        <v>1</v>
-      </c>
-      <c r="AM32" s="39">
-        <v>1</v>
-      </c>
-      <c r="AN32" s="39">
-        <v>0</v>
-      </c>
-      <c r="AO32" s="39">
-        <v>1</v>
-      </c>
-      <c r="AP32" s="39">
-        <v>1</v>
-      </c>
-      <c r="AQ32" s="39">
-        <v>0</v>
-      </c>
-      <c r="AR32" s="39">
-        <v>0</v>
-      </c>
-      <c r="AS32" s="39">
-        <v>1</v>
-      </c>
-      <c r="AT32" s="39">
-        <v>0</v>
-      </c>
-      <c r="AU32" s="39">
-        <v>0</v>
-      </c>
-      <c r="AV32" s="39">
-        <v>0</v>
-      </c>
-      <c r="AW32" s="39">
-        <v>1</v>
-      </c>
-      <c r="AX32" s="39">
-        <v>1</v>
-      </c>
-      <c r="AY32" s="39">
-        <v>1</v>
-      </c>
-      <c r="AZ32" s="39">
-        <v>1</v>
-      </c>
-      <c r="BA32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BB32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BC32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BD32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BE32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BF32" s="39">
-        <v>1</v>
-      </c>
-      <c r="BG32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BH32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BI32" s="39">
-        <v>1</v>
-      </c>
-      <c r="BJ32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BK32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BL32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BM32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BN32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BO32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BP32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BQ32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BR32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BS32" s="39">
-        <v>1</v>
-      </c>
-      <c r="BT32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BU32" s="39">
-        <v>1</v>
-      </c>
-      <c r="BV32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BW32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BX32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BY32" s="39">
-        <v>0</v>
-      </c>
-      <c r="BZ32" s="39">
-        <v>1</v>
-      </c>
-      <c r="CA32" s="39">
-        <v>0</v>
-      </c>
-      <c r="CB32" s="39">
-        <v>0</v>
-      </c>
-      <c r="CC32" s="39">
-        <v>1</v>
-      </c>
-      <c r="CD32" s="39">
-        <v>0</v>
-      </c>
-      <c r="CE32" s="39">
-        <v>0</v>
-      </c>
-      <c r="CF32" s="39">
+      <c r="AB32" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="38">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="38">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="38">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="38">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="38">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="38">
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="38">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="38">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="38">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="38">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="38">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="38">
+        <v>1</v>
+      </c>
+      <c r="AX32" s="38">
+        <v>1</v>
+      </c>
+      <c r="AY32" s="38">
+        <v>1</v>
+      </c>
+      <c r="AZ32" s="38">
+        <v>1</v>
+      </c>
+      <c r="BA32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF32" s="38">
+        <v>1</v>
+      </c>
+      <c r="BG32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BH32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BI32" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BL32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BM32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BP32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BQ32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BR32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BS32" s="38">
+        <v>1</v>
+      </c>
+      <c r="BT32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BU32" s="38">
+        <v>1</v>
+      </c>
+      <c r="BV32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BW32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BX32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BY32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BZ32" s="38">
+        <v>1</v>
+      </c>
+      <c r="CA32" s="38">
+        <v>0</v>
+      </c>
+      <c r="CB32" s="38">
+        <v>0</v>
+      </c>
+      <c r="CC32" s="38">
+        <v>1</v>
+      </c>
+      <c r="CD32" s="38">
+        <v>0</v>
+      </c>
+      <c r="CE32" s="38">
+        <v>0</v>
+      </c>
+      <c r="CF32" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:84" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="39">
+    <row r="33" spans="1:84" ht="54.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="38">
         <v>29</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="D33" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="F33" s="101" t="s">
-        <v>230</v>
+        <v>219</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="F33" s="91" t="s">
+        <v>221</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>232</v>
+        <v>222</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>223</v>
       </c>
       <c r="I33" s="19">
         <v>3</v>
@@ -10346,241 +10656,241 @@
       <c r="N33" s="19">
         <v>1</v>
       </c>
-      <c r="O33" s="54">
-        <v>0</v>
-      </c>
-      <c r="P33" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="29">
-        <v>0</v>
-      </c>
-      <c r="R33" s="39">
-        <v>0</v>
-      </c>
-      <c r="S33" s="39">
-        <v>1</v>
-      </c>
-      <c r="T33" s="39">
-        <v>0</v>
-      </c>
-      <c r="U33" s="39">
-        <v>0</v>
-      </c>
-      <c r="V33" s="39">
-        <v>0</v>
-      </c>
-      <c r="W33" s="41">
-        <v>1</v>
-      </c>
-      <c r="X33" s="70">
+      <c r="O33" s="53">
+        <v>0</v>
+      </c>
+      <c r="P33" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="28">
+        <v>0</v>
+      </c>
+      <c r="R33" s="38">
+        <v>0</v>
+      </c>
+      <c r="S33" s="38">
+        <v>1</v>
+      </c>
+      <c r="T33" s="38">
+        <v>0</v>
+      </c>
+      <c r="U33" s="38">
+        <v>0</v>
+      </c>
+      <c r="V33" s="38">
+        <v>0</v>
+      </c>
+      <c r="W33" s="40">
+        <v>1</v>
+      </c>
+      <c r="X33" s="69">
         <v>250000</v>
       </c>
-      <c r="Y33" s="70">
+      <c r="Y33" s="69">
         <v>250000</v>
       </c>
-      <c r="Z33" s="45">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="29">
+      <c r="Z33" s="44">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="28">
         <v>9</v>
       </c>
-      <c r="AB33" s="39">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="39">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="39">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="39">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="39">
-        <v>1</v>
-      </c>
-      <c r="AG33" s="39">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="39">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="39">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="39">
-        <v>1</v>
-      </c>
-      <c r="AK33" s="39">
-        <v>1</v>
-      </c>
-      <c r="AL33" s="39">
-        <v>1</v>
-      </c>
-      <c r="AM33" s="39">
-        <v>1</v>
-      </c>
-      <c r="AN33" s="39">
-        <v>1</v>
-      </c>
-      <c r="AO33" s="39">
-        <v>1</v>
-      </c>
-      <c r="AP33" s="39">
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="39">
-        <v>1</v>
-      </c>
-      <c r="AR33" s="39">
-        <v>1</v>
-      </c>
-      <c r="AS33" s="39">
-        <v>1</v>
-      </c>
-      <c r="AT33" s="39">
-        <v>0</v>
-      </c>
-      <c r="AU33" s="39">
-        <v>0</v>
-      </c>
-      <c r="AV33" s="39">
-        <v>0</v>
-      </c>
-      <c r="AW33" s="39">
-        <v>0</v>
-      </c>
-      <c r="AX33" s="39">
-        <v>0</v>
-      </c>
-      <c r="AY33" s="39">
-        <v>1</v>
-      </c>
-      <c r="AZ33" s="39">
-        <v>1</v>
-      </c>
-      <c r="BA33" s="39">
-        <v>1</v>
-      </c>
-      <c r="BB33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BC33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BD33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BE33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BF33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BG33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BH33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BI33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BJ33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BK33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BL33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BM33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BN33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BO33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BP33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BQ33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BR33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BS33" s="39">
-        <v>1</v>
-      </c>
-      <c r="BT33" s="39">
-        <v>1</v>
-      </c>
-      <c r="BU33" s="39">
-        <v>1</v>
-      </c>
-      <c r="BV33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BW33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BX33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BY33" s="39">
-        <v>0</v>
-      </c>
-      <c r="BZ33" s="39">
-        <v>1</v>
-      </c>
-      <c r="CA33" s="39">
-        <v>0</v>
-      </c>
-      <c r="CB33" s="39">
-        <v>1</v>
-      </c>
-      <c r="CC33" s="39">
-        <v>0</v>
-      </c>
-      <c r="CD33" s="39">
-        <v>1</v>
-      </c>
-      <c r="CE33" s="39">
-        <v>0</v>
-      </c>
-      <c r="CF33" s="39">
+      <c r="AB33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="38">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="38">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL33" s="38">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="38">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="38">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="38">
+        <v>1</v>
+      </c>
+      <c r="AP33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="38">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="38">
+        <v>1</v>
+      </c>
+      <c r="AS33" s="38">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="38">
+        <v>1</v>
+      </c>
+      <c r="AZ33" s="38">
+        <v>1</v>
+      </c>
+      <c r="BA33" s="38">
+        <v>1</v>
+      </c>
+      <c r="BB33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BH33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BI33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BJ33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BL33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BM33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BP33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BQ33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BR33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BS33" s="38">
+        <v>1</v>
+      </c>
+      <c r="BT33" s="38">
+        <v>1</v>
+      </c>
+      <c r="BU33" s="38">
+        <v>1</v>
+      </c>
+      <c r="BV33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BW33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BX33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BY33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BZ33" s="38">
+        <v>1</v>
+      </c>
+      <c r="CA33" s="38">
+        <v>0</v>
+      </c>
+      <c r="CB33" s="38">
+        <v>1</v>
+      </c>
+      <c r="CC33" s="38">
+        <v>0</v>
+      </c>
+      <c r="CD33" s="38">
+        <v>1</v>
+      </c>
+      <c r="CE33" s="38">
+        <v>0</v>
+      </c>
+      <c r="CF33" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:84" ht="57" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="39">
+    <row r="34" spans="1:84" ht="90.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="38">
         <v>30</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="D34" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="E34" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F34" s="25" t="s">
-        <v>235</v>
+      <c r="D34" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>226</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="I34" s="19">
         <v>5</v>
@@ -10594,37 +10904,37 @@
       <c r="L34" s="19">
         <v>0</v>
       </c>
-      <c r="M34" s="64">
-        <v>0</v>
-      </c>
-      <c r="N34" s="64">
-        <v>0</v>
-      </c>
-      <c r="O34" s="54">
-        <v>0</v>
-      </c>
-      <c r="P34" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="29">
-        <v>0</v>
-      </c>
-      <c r="R34" s="39">
-        <v>0</v>
-      </c>
-      <c r="S34" s="39">
-        <v>0</v>
-      </c>
-      <c r="T34" s="39">
-        <v>1</v>
-      </c>
-      <c r="U34" s="39">
-        <v>0</v>
-      </c>
-      <c r="V34" s="39">
-        <v>0</v>
-      </c>
-      <c r="W34" s="41">
+      <c r="M34" s="63">
+        <v>0</v>
+      </c>
+      <c r="N34" s="63">
+        <v>0</v>
+      </c>
+      <c r="O34" s="53">
+        <v>0</v>
+      </c>
+      <c r="P34" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="28">
+        <v>0</v>
+      </c>
+      <c r="R34" s="38">
+        <v>0</v>
+      </c>
+      <c r="S34" s="38">
+        <v>0</v>
+      </c>
+      <c r="T34" s="38">
+        <v>1</v>
+      </c>
+      <c r="U34" s="38">
+        <v>0</v>
+      </c>
+      <c r="V34" s="38">
+        <v>0</v>
+      </c>
+      <c r="W34" s="40">
         <v>1</v>
       </c>
       <c r="X34" s="16">
@@ -10633,227 +10943,183 @@
       <c r="Y34" s="16">
         <v>1000000</v>
       </c>
-      <c r="Z34" s="45">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="29">
+      <c r="Z34" s="44">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="28">
         <v>24</v>
       </c>
-      <c r="AB34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="39">
-        <v>1</v>
-      </c>
-      <c r="AL34" s="39">
-        <v>1</v>
-      </c>
-      <c r="AM34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AN34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AO34" s="39">
-        <v>1</v>
-      </c>
-      <c r="AP34" s="39">
-        <v>1</v>
-      </c>
-      <c r="AQ34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AR34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AS34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT34" s="39">
-        <v>1</v>
-      </c>
-      <c r="AU34" s="39">
-        <v>1</v>
-      </c>
-      <c r="AV34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AW34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AX34" s="39">
-        <v>1</v>
-      </c>
-      <c r="AY34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AZ34" s="39">
-        <v>1</v>
-      </c>
-      <c r="BA34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BB34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BC34" s="39">
-        <v>1</v>
-      </c>
-      <c r="BD34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BE34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BF34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BG34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BH34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BI34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BJ34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BK34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BL34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BM34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BN34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BO34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BP34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BQ34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BR34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BS34" s="39">
-        <v>1</v>
-      </c>
-      <c r="BT34" s="39">
-        <v>1</v>
-      </c>
-      <c r="BU34" s="39">
-        <v>1</v>
-      </c>
-      <c r="BV34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BW34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BX34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BY34" s="39">
-        <v>0</v>
-      </c>
-      <c r="BZ34" s="39">
-        <v>1</v>
-      </c>
-      <c r="CA34" s="39">
-        <v>0</v>
-      </c>
-      <c r="CB34" s="39">
-        <v>1</v>
-      </c>
-      <c r="CC34" s="39">
-        <v>1</v>
-      </c>
-      <c r="CD34" s="39">
-        <v>0</v>
-      </c>
-      <c r="CE34" s="39">
-        <v>0</v>
-      </c>
-      <c r="CF34" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="18"/>
-      <c r="C35" s="103"/>
-    </row>
-    <row r="36" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="103"/>
-    </row>
-    <row r="37" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
-      <c r="C37" s="103"/>
-    </row>
-    <row r="38" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
-      <c r="C38" s="103"/>
-    </row>
-    <row r="39" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="19"/>
-      <c r="C39" s="103"/>
-    </row>
-    <row r="40" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="103"/>
-    </row>
-    <row r="41" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="19"/>
-      <c r="C41" s="103"/>
-    </row>
-    <row r="42" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19"/>
-      <c r="C42" s="103"/>
-    </row>
-    <row r="43" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="19"/>
-      <c r="C43" s="103"/>
-    </row>
-    <row r="44" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="64"/>
-      <c r="C44" s="105"/>
-    </row>
-    <row r="45" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="64"/>
-      <c r="C45" s="105"/>
+      <c r="AB34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL34" s="38">
+        <v>1</v>
+      </c>
+      <c r="AM34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="38">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="38">
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="38">
+        <v>1</v>
+      </c>
+      <c r="AU34" s="38">
+        <v>1</v>
+      </c>
+      <c r="AV34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="38">
+        <v>1</v>
+      </c>
+      <c r="AY34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="38">
+        <v>1</v>
+      </c>
+      <c r="BA34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="38">
+        <v>1</v>
+      </c>
+      <c r="BD34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BH34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BI34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BJ34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BL34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BM34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BP34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BQ34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BR34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BS34" s="38">
+        <v>1</v>
+      </c>
+      <c r="BT34" s="38">
+        <v>1</v>
+      </c>
+      <c r="BU34" s="38">
+        <v>1</v>
+      </c>
+      <c r="BV34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BW34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BX34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BY34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BZ34" s="38">
+        <v>1</v>
+      </c>
+      <c r="CA34" s="38">
+        <v>0</v>
+      </c>
+      <c r="CB34" s="38">
+        <v>1</v>
+      </c>
+      <c r="CC34" s="38">
+        <v>1</v>
+      </c>
+      <c r="CD34" s="38">
+        <v>0</v>
+      </c>
+      <c r="CE34" s="38">
+        <v>0</v>
+      </c>
+      <c r="CF34" s="38">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -10887,21 +11153,22 @@
     <mergeCell ref="AF2:AI2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{0F5D8730-BD4C-40F7-9464-18B236E09D73}"/>
-    <hyperlink ref="H6" r:id="rId2" xr:uid="{FFEF3276-248B-48A8-AB29-69DB2DC6E7DD}"/>
-    <hyperlink ref="H7" r:id="rId3" xr:uid="{91CE3586-2749-4DE4-AEA3-B5F3D18A19E8}"/>
-    <hyperlink ref="H10" r:id="rId4" display="mailto:emansalem19@hotmail.com" xr:uid="{85ECFAD2-461B-4CC6-83DC-37970E35A95A}"/>
-    <hyperlink ref="H11" r:id="rId5" display="mailto:gamilaali2003@gmail.com" xr:uid="{D4957C6E-3A74-41D1-A706-87BAA73A43D4}"/>
-    <hyperlink ref="H18" r:id="rId6" display="mailto:mamdouh_eissa@yahoo.com" xr:uid="{D3032C25-B9E1-4176-BDB3-5752061DD979}"/>
-    <hyperlink ref="I19" r:id="rId7" display="mailto:ggenidymohamed@sci.cu.edu.eg" xr:uid="{4C23121D-2FE3-474C-BCB6-4254E9A7F520}"/>
-    <hyperlink ref="H20" r:id="rId8" display="mailto:bahaazaghloul@hotmail.com" xr:uid="{D973DA7E-2711-4C72-BE09-CA4A48A4BBC5}"/>
-    <hyperlink ref="H21" r:id="rId9" xr:uid="{0E165D22-07DC-4EF8-AA66-47AB9804A410}"/>
-    <hyperlink ref="H23" r:id="rId10" display="mailto:Mba.zahran@narss.sci.eg" xr:uid="{2AAF62E8-008F-41F5-AEFE-264B8FBEB35F}"/>
-    <hyperlink ref="H31" r:id="rId11" display="mailto:tehamoud@ncsu.edu" xr:uid="{E66AF7D4-A1DB-4B89-BB7D-13CDD6590260}"/>
-    <hyperlink ref="H32" r:id="rId12" display="mailto:Mahmoud.saleh07@gmail.com" xr:uid="{4EEABECF-15DA-44FE-AD92-FBBB7B5C9BF2}"/>
-    <hyperlink ref="H33" r:id="rId13" display="mailto:Abdelhadimoh94@gmail.com" xr:uid="{28FC6CC8-0080-427D-B393-4A883FEDD984}"/>
+    <hyperlink ref="H5" r:id="rId1"/>
+    <hyperlink ref="H6" r:id="rId2"/>
+    <hyperlink ref="H7" r:id="rId3"/>
+    <hyperlink ref="H10" r:id="rId4" display="mailto:emansalem19@hotmail.com"/>
+    <hyperlink ref="H11" r:id="rId5" display="mailto:gamilaali2003@gmail.com"/>
+    <hyperlink ref="H18" r:id="rId6"/>
+    <hyperlink ref="H20" r:id="rId7" display="mailto:bahaazaghloul@hotmail.com"/>
+    <hyperlink ref="H21" r:id="rId8"/>
+    <hyperlink ref="H23" r:id="rId9" display="mailto:Mba.zahran@narss.sci.eg"/>
+    <hyperlink ref="H31" r:id="rId10" display="mailto:tehamoud@ncsu.edu"/>
+    <hyperlink ref="H32" r:id="rId11" display="mailto:Mahmoud.saleh07@gmail.com"/>
+    <hyperlink ref="H33" r:id="rId12" display="mailto:Abdelhadimoh94@gmail.com"/>
+    <hyperlink ref="H19" r:id="rId13"/>
+    <hyperlink ref="H9" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>